--- a/easylight/doc/Tarifa_Alto_Consumo.xlsx
+++ b/easylight/doc/Tarifa_Alto_Consumo.xlsx
@@ -12,7 +12,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19">
+  <si>
+    <t>id</t>
+  </si>
   <si>
     <t>region</t>
   </si>
@@ -20,13 +23,13 @@
     <t>month</t>
   </si>
   <si>
-    <t>cost</t>
+    <t>fixed_charge</t>
   </si>
   <si>
-    <t>verano</t>
+    <t>cost_verano</t>
   </si>
   <si>
-    <t>no_verano</t>
+    <t>cost_no_verano</t>
   </si>
   <si>
     <t>unique_rate</t>
@@ -161,6 +164,21 @@
         <color indexed="10"/>
       </left>
       <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
         <color indexed="8"/>
       </right>
       <top style="thin">
@@ -209,7 +227,7 @@
         <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
         <color indexed="10"/>
@@ -246,28 +264,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -280,40 +283,37 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1421,10 +1421,10 @@
       <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="3">
+      <c r="B1" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="3">
         <v>2</v>
       </c>
       <c r="D1" t="s" s="2">
@@ -1436,1223 +1436,1369 @@
       <c r="F1" t="s" s="2">
         <v>5</v>
       </c>
-      <c r="G1" s="4"/>
+      <c r="G1" t="s" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" ht="20.7" customHeight="1">
-      <c r="A2" s="5">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="6">
+      <c r="B2" s="5">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="6">
+        <v>7</v>
+      </c>
+      <c r="D2" s="7">
+        <v>95.67</v>
+      </c>
+      <c r="E2" s="4">
+        <v>4.038</v>
+      </c>
+      <c r="F2" s="8">
+        <v>3.468</v>
+      </c>
+      <c r="G2" s="9"/>
+    </row>
+    <row r="3" ht="20.7" customHeight="1">
+      <c r="A3" s="10">
+        <v>2</v>
+      </c>
+      <c r="B3" s="11">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s" s="6">
+        <v>8</v>
+      </c>
+      <c r="D3" s="12">
+        <v>97.01000000000001</v>
+      </c>
+      <c r="E3" s="10">
+        <v>4.193</v>
+      </c>
+      <c r="F3" s="13">
+        <v>3.601</v>
+      </c>
+      <c r="G3" s="14"/>
+    </row>
+    <row r="4" ht="20.7" customHeight="1">
+      <c r="A4" s="10">
+        <v>3</v>
+      </c>
+      <c r="B4" s="11">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s" s="6">
+        <v>9</v>
+      </c>
+      <c r="D4" s="12">
+        <v>99.95</v>
+      </c>
+      <c r="E4" s="10">
+        <v>4.528</v>
+      </c>
+      <c r="F4" s="13">
+        <v>3.889</v>
+      </c>
+      <c r="G4" s="14"/>
+    </row>
+    <row r="5" ht="20.7" customHeight="1">
+      <c r="A5" s="10">
+        <v>4</v>
+      </c>
+      <c r="B5" s="11">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s" s="6">
+        <v>10</v>
+      </c>
+      <c r="D5" s="12">
+        <v>100.55</v>
+      </c>
+      <c r="E5" s="10">
+        <v>4.462</v>
+      </c>
+      <c r="F5" s="13">
+        <v>3.833</v>
+      </c>
+      <c r="G5" s="14"/>
+    </row>
+    <row r="6" ht="20.7" customHeight="1">
+      <c r="A6" s="10">
+        <v>5</v>
+      </c>
+      <c r="B6" s="11">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D6" s="12">
+        <v>99.84</v>
+      </c>
+      <c r="E6" s="10">
+        <v>4.246</v>
+      </c>
+      <c r="F6" s="13">
+        <v>3.647</v>
+      </c>
+      <c r="G6" s="14"/>
+    </row>
+    <row r="7" ht="20.7" customHeight="1">
+      <c r="A7" s="10">
         <v>6</v>
       </c>
-      <c r="C2" s="7">
+      <c r="B7" s="11">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s" s="6">
+        <v>12</v>
+      </c>
+      <c r="D7" s="12">
+        <v>98.70999999999999</v>
+      </c>
+      <c r="E7" s="10">
+        <v>4.232</v>
+      </c>
+      <c r="F7" s="13">
+        <v>3.635</v>
+      </c>
+      <c r="G7" s="14"/>
+    </row>
+    <row r="8" ht="20.7" customHeight="1">
+      <c r="A8" s="10">
+        <v>7</v>
+      </c>
+      <c r="B8" s="11">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s" s="6">
+        <v>13</v>
+      </c>
+      <c r="D8" s="12">
+        <v>98.86</v>
+      </c>
+      <c r="E8" s="10">
+        <v>4.225</v>
+      </c>
+      <c r="F8" s="13">
+        <v>3.629</v>
+      </c>
+      <c r="G8" s="14"/>
+    </row>
+    <row r="9" ht="20.7" customHeight="1">
+      <c r="A9" s="10">
+        <v>8</v>
+      </c>
+      <c r="B9" s="11">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s" s="6">
+        <v>14</v>
+      </c>
+      <c r="D9" s="12">
+        <v>98</v>
+      </c>
+      <c r="E9" s="10">
+        <v>4.153</v>
+      </c>
+      <c r="F9" s="13">
+        <v>3.567</v>
+      </c>
+      <c r="G9" s="14"/>
+    </row>
+    <row r="10" ht="20.7" customHeight="1">
+      <c r="A10" s="10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="11">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s" s="6">
+        <v>15</v>
+      </c>
+      <c r="D10" s="12">
+        <v>97.51000000000001</v>
+      </c>
+      <c r="E10" s="10">
+        <v>4.115</v>
+      </c>
+      <c r="F10" s="13">
+        <v>3.535</v>
+      </c>
+      <c r="G10" s="14"/>
+    </row>
+    <row r="11" ht="20.7" customHeight="1">
+      <c r="A11" s="10">
+        <v>10</v>
+      </c>
+      <c r="B11" s="11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s" s="6">
+        <v>16</v>
+      </c>
+      <c r="D11" s="12">
+        <v>97.70999999999999</v>
+      </c>
+      <c r="E11" s="10">
+        <v>4.141</v>
+      </c>
+      <c r="F11" s="13">
+        <v>3.557</v>
+      </c>
+      <c r="G11" s="14"/>
+    </row>
+    <row r="12" ht="20.7" customHeight="1">
+      <c r="A12" s="10">
+        <v>11</v>
+      </c>
+      <c r="B12" s="11">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s" s="6">
+        <v>17</v>
+      </c>
+      <c r="D12" s="12"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+    </row>
+    <row r="13" ht="20.7" customHeight="1">
+      <c r="A13" s="10">
+        <v>12</v>
+      </c>
+      <c r="B13" s="11">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s" s="6">
+        <v>18</v>
+      </c>
+      <c r="D13" s="12"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+    </row>
+    <row r="14" ht="20.7" customHeight="1">
+      <c r="A14" s="10">
+        <v>13</v>
+      </c>
+      <c r="B14" s="11">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s" s="6">
+        <v>7</v>
+      </c>
+      <c r="D14" s="12">
         <v>95.67</v>
       </c>
-      <c r="D2" s="8">
+      <c r="E14" s="13">
+        <v>4.401</v>
+      </c>
+      <c r="F14" s="13">
+        <v>3.468</v>
+      </c>
+      <c r="G14" s="13"/>
+    </row>
+    <row r="15" ht="20.7" customHeight="1">
+      <c r="A15" s="10">
+        <v>14</v>
+      </c>
+      <c r="B15" s="11">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s" s="6">
+        <v>8</v>
+      </c>
+      <c r="D15" s="12">
+        <v>97.01000000000001</v>
+      </c>
+      <c r="E15" s="13">
+        <v>4.57</v>
+      </c>
+      <c r="F15" s="13">
+        <v>3.601</v>
+      </c>
+      <c r="G15" s="13"/>
+    </row>
+    <row r="16" ht="20.7" customHeight="1">
+      <c r="A16" s="10">
+        <v>15</v>
+      </c>
+      <c r="B16" s="11">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s" s="6">
+        <v>9</v>
+      </c>
+      <c r="D16" s="12">
+        <v>99.95</v>
+      </c>
+      <c r="E16" s="13">
+        <v>4.935</v>
+      </c>
+      <c r="F16" s="13">
+        <v>3.889</v>
+      </c>
+      <c r="G16" s="13"/>
+    </row>
+    <row r="17" ht="20.7" customHeight="1">
+      <c r="A17" s="10">
+        <v>16</v>
+      </c>
+      <c r="B17" s="11">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s" s="6">
+        <v>10</v>
+      </c>
+      <c r="D17" s="12">
+        <v>100.55</v>
+      </c>
+      <c r="E17" s="13">
+        <v>4.863</v>
+      </c>
+      <c r="F17" s="13">
+        <v>3.833</v>
+      </c>
+      <c r="G17" s="13"/>
+    </row>
+    <row r="18" ht="20.7" customHeight="1">
+      <c r="A18" s="10">
+        <v>17</v>
+      </c>
+      <c r="B18" s="11">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D18" s="12">
+        <v>99.84</v>
+      </c>
+      <c r="E18" s="13">
+        <v>4.628</v>
+      </c>
+      <c r="F18" s="13">
+        <v>3.647</v>
+      </c>
+      <c r="G18" s="13"/>
+    </row>
+    <row r="19" ht="20.7" customHeight="1">
+      <c r="A19" s="10">
+        <v>18</v>
+      </c>
+      <c r="B19" s="11">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s" s="6">
+        <v>12</v>
+      </c>
+      <c r="D19" s="12">
+        <v>98.70999999999999</v>
+      </c>
+      <c r="E19" s="13">
+        <v>4.612</v>
+      </c>
+      <c r="F19" s="13">
+        <v>3.635</v>
+      </c>
+      <c r="G19" s="13"/>
+    </row>
+    <row r="20" ht="20.7" customHeight="1">
+      <c r="A20" s="10">
+        <v>19</v>
+      </c>
+      <c r="B20" s="11">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s" s="6">
+        <v>13</v>
+      </c>
+      <c r="D20" s="12">
+        <v>98.86</v>
+      </c>
+      <c r="E20" s="13">
+        <v>4.605</v>
+      </c>
+      <c r="F20" s="13">
+        <v>3.629</v>
+      </c>
+      <c r="G20" s="13"/>
+    </row>
+    <row r="21" ht="20.7" customHeight="1">
+      <c r="A21" s="10">
+        <v>20</v>
+      </c>
+      <c r="B21" s="11">
+        <v>2</v>
+      </c>
+      <c r="C21" t="s" s="6">
+        <v>14</v>
+      </c>
+      <c r="D21" s="12">
+        <v>98</v>
+      </c>
+      <c r="E21" s="13">
+        <v>4.526</v>
+      </c>
+      <c r="F21" s="13">
+        <v>3.567</v>
+      </c>
+      <c r="G21" s="13"/>
+    </row>
+    <row r="22" ht="20.7" customHeight="1">
+      <c r="A22" s="10">
+        <v>21</v>
+      </c>
+      <c r="B22" s="11">
+        <v>2</v>
+      </c>
+      <c r="C22" t="s" s="6">
+        <v>15</v>
+      </c>
+      <c r="D22" s="12">
+        <v>97.51000000000001</v>
+      </c>
+      <c r="E22" s="13">
+        <v>4.485</v>
+      </c>
+      <c r="F22" s="13">
+        <v>3.535</v>
+      </c>
+      <c r="G22" s="13"/>
+    </row>
+    <row r="23" ht="20.7" customHeight="1">
+      <c r="A23" s="10">
+        <v>22</v>
+      </c>
+      <c r="B23" s="11">
+        <v>2</v>
+      </c>
+      <c r="C23" t="s" s="6">
+        <v>16</v>
+      </c>
+      <c r="D23" s="12">
+        <v>97.70999999999999</v>
+      </c>
+      <c r="E23" s="13">
+        <v>4.513</v>
+      </c>
+      <c r="F23" s="13">
+        <v>3.557</v>
+      </c>
+      <c r="G23" s="13"/>
+    </row>
+    <row r="24" ht="20.7" customHeight="1">
+      <c r="A24" s="10">
+        <v>23</v>
+      </c>
+      <c r="B24" s="11">
+        <v>2</v>
+      </c>
+      <c r="C24" t="s" s="6">
+        <v>17</v>
+      </c>
+      <c r="D24" s="12"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+    </row>
+    <row r="25" ht="20.7" customHeight="1">
+      <c r="A25" s="10">
+        <v>24</v>
+      </c>
+      <c r="B25" s="11">
+        <v>2</v>
+      </c>
+      <c r="C25" t="s" s="6">
+        <v>18</v>
+      </c>
+      <c r="D25" s="12"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+    </row>
+    <row r="26" ht="20.7" customHeight="1">
+      <c r="A26" s="10">
+        <v>25</v>
+      </c>
+      <c r="B26" s="11">
+        <v>3</v>
+      </c>
+      <c r="C26" t="s" s="6">
+        <v>7</v>
+      </c>
+      <c r="D26" s="12">
+        <v>95.67</v>
+      </c>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13">
+        <v>4.156</v>
+      </c>
+    </row>
+    <row r="27" ht="20.7" customHeight="1">
+      <c r="A27" s="10">
+        <v>26</v>
+      </c>
+      <c r="B27" s="11">
+        <v>3</v>
+      </c>
+      <c r="C27" t="s" s="6">
+        <v>8</v>
+      </c>
+      <c r="D27" s="12">
+        <v>97.01000000000001</v>
+      </c>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13">
+        <v>4.315</v>
+      </c>
+    </row>
+    <row r="28" ht="20.7" customHeight="1">
+      <c r="A28" s="10">
+        <v>27</v>
+      </c>
+      <c r="B28" s="11">
+        <v>3</v>
+      </c>
+      <c r="C28" t="s" s="6">
+        <v>9</v>
+      </c>
+      <c r="D28" s="12">
+        <v>99.95</v>
+      </c>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13">
+        <v>4.66</v>
+      </c>
+    </row>
+    <row r="29" ht="20.7" customHeight="1">
+      <c r="A29" s="10">
+        <v>28</v>
+      </c>
+      <c r="B29" s="11">
+        <v>3</v>
+      </c>
+      <c r="C29" t="s" s="6">
+        <v>10</v>
+      </c>
+      <c r="D29" s="12">
+        <v>100.55</v>
+      </c>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13">
+        <v>4.592</v>
+      </c>
+    </row>
+    <row r="30" ht="20.7" customHeight="1">
+      <c r="A30" s="10">
+        <v>29</v>
+      </c>
+      <c r="B30" s="11">
+        <v>3</v>
+      </c>
+      <c r="C30" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D30" s="12">
+        <v>99.84</v>
+      </c>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13">
+        <v>4.37</v>
+      </c>
+    </row>
+    <row r="31" ht="20.7" customHeight="1">
+      <c r="A31" s="10">
+        <v>30</v>
+      </c>
+      <c r="B31" s="11">
+        <v>3</v>
+      </c>
+      <c r="C31" t="s" s="6">
+        <v>12</v>
+      </c>
+      <c r="D31" s="12">
+        <v>98.70999999999999</v>
+      </c>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13">
+        <v>4.355</v>
+      </c>
+    </row>
+    <row r="32" ht="20.7" customHeight="1">
+      <c r="A32" s="10">
+        <v>31</v>
+      </c>
+      <c r="B32" s="11">
+        <v>3</v>
+      </c>
+      <c r="C32" t="s" s="6">
+        <v>13</v>
+      </c>
+      <c r="D32" s="12">
+        <v>98.86</v>
+      </c>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13">
+        <v>4.348</v>
+      </c>
+    </row>
+    <row r="33" ht="20.7" customHeight="1">
+      <c r="A33" s="10">
+        <v>32</v>
+      </c>
+      <c r="B33" s="11">
+        <v>3</v>
+      </c>
+      <c r="C33" t="s" s="6">
+        <v>14</v>
+      </c>
+      <c r="D33" s="12">
+        <v>98</v>
+      </c>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13">
+        <v>4.274</v>
+      </c>
+    </row>
+    <row r="34" ht="20.7" customHeight="1">
+      <c r="A34" s="10">
+        <v>33</v>
+      </c>
+      <c r="B34" s="11">
+        <v>3</v>
+      </c>
+      <c r="C34" t="s" s="6">
+        <v>15</v>
+      </c>
+      <c r="D34" s="12">
+        <v>97.51000000000001</v>
+      </c>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13">
+        <v>4.235</v>
+      </c>
+    </row>
+    <row r="35" ht="20.7" customHeight="1">
+      <c r="A35" s="10">
+        <v>34</v>
+      </c>
+      <c r="B35" s="11">
+        <v>3</v>
+      </c>
+      <c r="C35" t="s" s="6">
+        <v>16</v>
+      </c>
+      <c r="D35" s="12">
+        <v>97.70999999999999</v>
+      </c>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13">
+        <v>4.262</v>
+      </c>
+    </row>
+    <row r="36" ht="20.7" customHeight="1">
+      <c r="A36" s="10">
+        <v>35</v>
+      </c>
+      <c r="B36" s="11">
+        <v>3</v>
+      </c>
+      <c r="C36" t="s" s="6">
+        <v>17</v>
+      </c>
+      <c r="D36" s="12"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+    </row>
+    <row r="37" ht="20.7" customHeight="1">
+      <c r="A37" s="10">
+        <v>36</v>
+      </c>
+      <c r="B37" s="11">
+        <v>3</v>
+      </c>
+      <c r="C37" t="s" s="6">
+        <v>18</v>
+      </c>
+      <c r="D37" s="12"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+    </row>
+    <row r="38" ht="20.7" customHeight="1">
+      <c r="A38" s="10">
+        <v>37</v>
+      </c>
+      <c r="B38" s="11">
+        <v>4</v>
+      </c>
+      <c r="C38" t="s" s="6">
+        <v>7</v>
+      </c>
+      <c r="D38" s="12">
+        <v>95.67</v>
+      </c>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13">
+        <v>3.891</v>
+      </c>
+    </row>
+    <row r="39" ht="20.7" customHeight="1">
+      <c r="A39" s="10">
+        <v>38</v>
+      </c>
+      <c r="B39" s="11">
+        <v>4</v>
+      </c>
+      <c r="C39" t="s" s="6">
+        <v>8</v>
+      </c>
+      <c r="D39" s="12">
+        <v>97.01000000000001</v>
+      </c>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13">
+        <v>4.04</v>
+      </c>
+    </row>
+    <row r="40" ht="20.7" customHeight="1">
+      <c r="A40" s="10">
+        <v>39</v>
+      </c>
+      <c r="B40" s="11">
+        <v>4</v>
+      </c>
+      <c r="C40" t="s" s="6">
+        <v>9</v>
+      </c>
+      <c r="D40" s="12">
+        <v>99.95</v>
+      </c>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="13">
+        <v>4.363</v>
+      </c>
+    </row>
+    <row r="41" ht="20.7" customHeight="1">
+      <c r="A41" s="10">
+        <v>40</v>
+      </c>
+      <c r="B41" s="11">
+        <v>4</v>
+      </c>
+      <c r="C41" t="s" s="6">
+        <v>10</v>
+      </c>
+      <c r="D41" s="12">
+        <v>100.55</v>
+      </c>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="13">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="42" ht="20.7" customHeight="1">
+      <c r="A42" s="10">
+        <v>41</v>
+      </c>
+      <c r="B42" s="11">
+        <v>4</v>
+      </c>
+      <c r="C42" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D42" s="12">
+        <v>99.84</v>
+      </c>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="13">
+        <v>4.092</v>
+      </c>
+    </row>
+    <row r="43" ht="20.7" customHeight="1">
+      <c r="A43" s="10">
+        <v>42</v>
+      </c>
+      <c r="B43" s="11">
+        <v>4</v>
+      </c>
+      <c r="C43" t="s" s="6">
+        <v>12</v>
+      </c>
+      <c r="D43" s="12">
+        <v>98.70999999999999</v>
+      </c>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="13">
+        <v>4.078</v>
+      </c>
+    </row>
+    <row r="44" ht="20.7" customHeight="1">
+      <c r="A44" s="10">
+        <v>43</v>
+      </c>
+      <c r="B44" s="11">
+        <v>4</v>
+      </c>
+      <c r="C44" t="s" s="6">
+        <v>13</v>
+      </c>
+      <c r="D44" s="12">
+        <v>98.86</v>
+      </c>
+      <c r="E44" s="13"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="13">
+        <v>4.071</v>
+      </c>
+    </row>
+    <row r="45" ht="20.7" customHeight="1">
+      <c r="A45" s="10">
+        <v>44</v>
+      </c>
+      <c r="B45" s="11">
+        <v>4</v>
+      </c>
+      <c r="C45" t="s" s="6">
+        <v>14</v>
+      </c>
+      <c r="D45" s="12">
+        <v>98</v>
+      </c>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="13">
+        <v>4.001</v>
+      </c>
+    </row>
+    <row r="46" ht="20.7" customHeight="1">
+      <c r="A46" s="10">
+        <v>45</v>
+      </c>
+      <c r="B46" s="11">
+        <v>4</v>
+      </c>
+      <c r="C46" t="s" s="6">
+        <v>15</v>
+      </c>
+      <c r="D46" s="12">
+        <v>97.51000000000001</v>
+      </c>
+      <c r="E46" s="13"/>
+      <c r="F46" s="13"/>
+      <c r="G46" s="13">
+        <v>3.965</v>
+      </c>
+    </row>
+    <row r="47" ht="20.7" customHeight="1">
+      <c r="A47" s="10">
+        <v>46</v>
+      </c>
+      <c r="B47" s="11">
+        <v>4</v>
+      </c>
+      <c r="C47" t="s" s="6">
+        <v>16</v>
+      </c>
+      <c r="D47" s="12">
+        <v>97.70999999999999</v>
+      </c>
+      <c r="E47" s="13"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="13">
+        <v>3.99</v>
+      </c>
+    </row>
+    <row r="48" ht="20.7" customHeight="1">
+      <c r="A48" s="10">
+        <v>47</v>
+      </c>
+      <c r="B48" s="11">
+        <v>4</v>
+      </c>
+      <c r="C48" t="s" s="6">
+        <v>17</v>
+      </c>
+      <c r="D48" s="12"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="13"/>
+    </row>
+    <row r="49" ht="20.7" customHeight="1">
+      <c r="A49" s="10">
+        <v>48</v>
+      </c>
+      <c r="B49" s="11">
+        <v>4</v>
+      </c>
+      <c r="C49" t="s" s="6">
+        <v>18</v>
+      </c>
+      <c r="D49" s="12"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
+    </row>
+    <row r="50" ht="20.7" customHeight="1">
+      <c r="A50" s="10">
+        <v>49</v>
+      </c>
+      <c r="B50" s="11">
+        <v>5</v>
+      </c>
+      <c r="C50" t="s" s="6">
+        <v>7</v>
+      </c>
+      <c r="D50" s="12">
+        <v>95.67</v>
+      </c>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="13">
+        <v>3.796</v>
+      </c>
+    </row>
+    <row r="51" ht="20.7" customHeight="1">
+      <c r="A51" s="10">
+        <v>50</v>
+      </c>
+      <c r="B51" s="11">
+        <v>5</v>
+      </c>
+      <c r="C51" t="s" s="6">
+        <v>8</v>
+      </c>
+      <c r="D51" s="12">
+        <v>97.01000000000001</v>
+      </c>
+      <c r="E51" s="13"/>
+      <c r="F51" s="13"/>
+      <c r="G51" s="13">
+        <v>3.941</v>
+      </c>
+    </row>
+    <row r="52" ht="20.7" customHeight="1">
+      <c r="A52" s="10">
+        <v>51</v>
+      </c>
+      <c r="B52" s="11">
+        <v>5</v>
+      </c>
+      <c r="C52" t="s" s="6">
+        <v>9</v>
+      </c>
+      <c r="D52" s="12">
+        <v>99.95</v>
+      </c>
+      <c r="E52" s="13"/>
+      <c r="F52" s="13"/>
+      <c r="G52" s="13">
+        <v>4.256</v>
+      </c>
+    </row>
+    <row r="53" ht="20.7" customHeight="1">
+      <c r="A53" s="10">
+        <v>52</v>
+      </c>
+      <c r="B53" s="11">
+        <v>5</v>
+      </c>
+      <c r="C53" t="s" s="6">
+        <v>10</v>
+      </c>
+      <c r="D53" s="12">
+        <v>100.55</v>
+      </c>
+      <c r="E53" s="13"/>
+      <c r="F53" s="13"/>
+      <c r="G53" s="13">
+        <v>4.194</v>
+      </c>
+    </row>
+    <row r="54" ht="20.7" customHeight="1">
+      <c r="A54" s="10">
+        <v>53</v>
+      </c>
+      <c r="B54" s="11">
+        <v>5</v>
+      </c>
+      <c r="C54" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D54" s="12">
+        <v>99.84</v>
+      </c>
+      <c r="E54" s="13"/>
+      <c r="F54" s="13"/>
+      <c r="G54" s="13">
+        <v>3.991</v>
+      </c>
+    </row>
+    <row r="55" ht="20.7" customHeight="1">
+      <c r="A55" s="10">
+        <v>54</v>
+      </c>
+      <c r="B55" s="11">
+        <v>5</v>
+      </c>
+      <c r="C55" t="s" s="6">
+        <v>12</v>
+      </c>
+      <c r="D55" s="12">
+        <v>98.70999999999999</v>
+      </c>
+      <c r="E55" s="13"/>
+      <c r="F55" s="13"/>
+      <c r="G55" s="13">
+        <v>3.977</v>
+      </c>
+    </row>
+    <row r="56" ht="20.7" customHeight="1">
+      <c r="A56" s="10">
+        <v>55</v>
+      </c>
+      <c r="B56" s="11">
+        <v>5</v>
+      </c>
+      <c r="C56" t="s" s="6">
+        <v>13</v>
+      </c>
+      <c r="D56" s="12">
+        <v>98.86</v>
+      </c>
+      <c r="E56" s="13"/>
+      <c r="F56" s="13"/>
+      <c r="G56" s="13">
+        <v>3.971</v>
+      </c>
+    </row>
+    <row r="57" ht="20.7" customHeight="1">
+      <c r="A57" s="10">
+        <v>56</v>
+      </c>
+      <c r="B57" s="11">
+        <v>5</v>
+      </c>
+      <c r="C57" t="s" s="6">
+        <v>14</v>
+      </c>
+      <c r="D57" s="12">
+        <v>98</v>
+      </c>
+      <c r="E57" s="13"/>
+      <c r="F57" s="13"/>
+      <c r="G57" s="13">
+        <v>3.903</v>
+      </c>
+    </row>
+    <row r="58" ht="20.7" customHeight="1">
+      <c r="A58" s="10">
+        <v>57</v>
+      </c>
+      <c r="B58" s="11">
+        <v>5</v>
+      </c>
+      <c r="C58" t="s" s="6">
+        <v>15</v>
+      </c>
+      <c r="D58" s="12">
+        <v>97.51000000000001</v>
+      </c>
+      <c r="E58" s="13"/>
+      <c r="F58" s="13"/>
+      <c r="G58" s="13">
+        <v>3.867</v>
+      </c>
+    </row>
+    <row r="59" ht="20.7" customHeight="1">
+      <c r="A59" s="10">
+        <v>58</v>
+      </c>
+      <c r="B59" s="11">
+        <v>5</v>
+      </c>
+      <c r="C59" t="s" s="6">
+        <v>16</v>
+      </c>
+      <c r="D59" s="12">
+        <v>97.70999999999999</v>
+      </c>
+      <c r="E59" s="13"/>
+      <c r="F59" s="13"/>
+      <c r="G59" s="13">
+        <v>3.891</v>
+      </c>
+    </row>
+    <row r="60" ht="20.7" customHeight="1">
+      <c r="A60" s="10">
+        <v>59</v>
+      </c>
+      <c r="B60" s="11">
+        <v>5</v>
+      </c>
+      <c r="C60" t="s" s="6">
+        <v>17</v>
+      </c>
+      <c r="D60" s="12"/>
+      <c r="E60" s="13"/>
+      <c r="F60" s="13"/>
+      <c r="G60" s="13"/>
+    </row>
+    <row r="61" ht="20.7" customHeight="1">
+      <c r="A61" s="10">
+        <v>60</v>
+      </c>
+      <c r="B61" s="11">
+        <v>5</v>
+      </c>
+      <c r="C61" t="s" s="6">
+        <v>18</v>
+      </c>
+      <c r="D61" s="12"/>
+      <c r="E61" s="13"/>
+      <c r="F61" s="13"/>
+      <c r="G61" s="13"/>
+    </row>
+    <row r="62" ht="20.7" customHeight="1">
+      <c r="A62" s="10">
+        <v>61</v>
+      </c>
+      <c r="B62" s="11">
+        <v>6</v>
+      </c>
+      <c r="C62" t="s" s="6">
+        <v>7</v>
+      </c>
+      <c r="D62" s="12">
+        <v>95.67</v>
+      </c>
+      <c r="E62" s="13"/>
+      <c r="F62" s="13"/>
+      <c r="G62" s="13">
+        <v>3.853</v>
+      </c>
+    </row>
+    <row r="63" ht="20.7" customHeight="1">
+      <c r="A63" s="10">
+        <v>62</v>
+      </c>
+      <c r="B63" s="11">
+        <v>6</v>
+      </c>
+      <c r="C63" t="s" s="6">
+        <v>8</v>
+      </c>
+      <c r="D63" s="12">
+        <v>97.01000000000001</v>
+      </c>
+      <c r="E63" s="13"/>
+      <c r="F63" s="13"/>
+      <c r="G63" s="13">
+        <v>4.001</v>
+      </c>
+    </row>
+    <row r="64" ht="20.7" customHeight="1">
+      <c r="A64" s="10">
+        <v>63</v>
+      </c>
+      <c r="B64" s="11">
+        <v>6</v>
+      </c>
+      <c r="C64" t="s" s="6">
+        <v>9</v>
+      </c>
+      <c r="D64" s="12">
+        <v>99.95</v>
+      </c>
+      <c r="E64" s="13"/>
+      <c r="F64" s="13"/>
+      <c r="G64" s="13">
+        <v>4.321</v>
+      </c>
+    </row>
+    <row r="65" ht="20.7" customHeight="1">
+      <c r="A65" s="10">
+        <v>64</v>
+      </c>
+      <c r="B65" s="11">
+        <v>6</v>
+      </c>
+      <c r="C65" t="s" s="6">
+        <v>10</v>
+      </c>
+      <c r="D65" s="12">
+        <v>100.55</v>
+      </c>
+      <c r="E65" s="13"/>
+      <c r="F65" s="13"/>
+      <c r="G65" s="13">
+        <v>4.258</v>
+      </c>
+    </row>
+    <row r="66" ht="20.7" customHeight="1">
+      <c r="A66" s="10">
+        <v>65</v>
+      </c>
+      <c r="B66" s="11">
+        <v>6</v>
+      </c>
+      <c r="C66" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D66" s="12">
+        <v>99.84</v>
+      </c>
+      <c r="E66" s="13"/>
+      <c r="F66" s="13"/>
+      <c r="G66" s="13">
+        <v>4.052</v>
+      </c>
+    </row>
+    <row r="67" ht="20.7" customHeight="1">
+      <c r="A67" s="10">
+        <v>66</v>
+      </c>
+      <c r="B67" s="11">
+        <v>6</v>
+      </c>
+      <c r="C67" t="s" s="6">
+        <v>12</v>
+      </c>
+      <c r="D67" s="12">
+        <v>98.70999999999999</v>
+      </c>
+      <c r="E67" s="13"/>
+      <c r="F67" s="13"/>
+      <c r="G67" s="13">
         <v>4.038</v>
       </c>
-      <c r="E2" s="9">
-        <v>3.468</v>
-      </c>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-    </row>
-    <row r="3" ht="20.7" customHeight="1">
-      <c r="A3" s="11">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s" s="6">
-        <v>7</v>
-      </c>
-      <c r="C3" s="12">
-        <v>97.01000000000001</v>
-      </c>
-      <c r="D3" s="13">
-        <v>4.193</v>
-      </c>
-      <c r="E3" s="14">
-        <v>3.601</v>
-      </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-    </row>
-    <row r="4" ht="20.7" customHeight="1">
-      <c r="A4" s="11">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s" s="6">
-        <v>8</v>
-      </c>
-      <c r="C4" s="12">
-        <v>99.95</v>
-      </c>
-      <c r="D4" s="13">
-        <v>4.528</v>
-      </c>
-      <c r="E4" s="14">
-        <v>3.889</v>
-      </c>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-    </row>
-    <row r="5" ht="20.7" customHeight="1">
-      <c r="A5" s="11">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s" s="6">
-        <v>9</v>
-      </c>
-      <c r="C5" s="12">
-        <v>100.55</v>
-      </c>
-      <c r="D5" s="13">
-        <v>4.462</v>
-      </c>
-      <c r="E5" s="14">
-        <v>3.833</v>
-      </c>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-    </row>
-    <row r="6" ht="20.7" customHeight="1">
-      <c r="A6" s="11">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="C6" s="12">
-        <v>99.84</v>
-      </c>
-      <c r="D6" s="13">
-        <v>4.246</v>
-      </c>
-      <c r="E6" s="14">
-        <v>3.647</v>
-      </c>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-    </row>
-    <row r="7" ht="20.7" customHeight="1">
-      <c r="A7" s="11">
-        <v>1</v>
-      </c>
-      <c r="B7" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="C7" s="12">
-        <v>98.70999999999999</v>
-      </c>
-      <c r="D7" s="13">
-        <v>4.232</v>
-      </c>
-      <c r="E7" s="14">
-        <v>3.635</v>
-      </c>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-    </row>
-    <row r="8" ht="20.7" customHeight="1">
-      <c r="A8" s="11">
-        <v>1</v>
-      </c>
-      <c r="B8" t="s" s="6">
-        <v>12</v>
-      </c>
-      <c r="C8" s="12">
+    </row>
+    <row r="68" ht="20.7" customHeight="1">
+      <c r="A68" s="10">
+        <v>67</v>
+      </c>
+      <c r="B68" s="11">
+        <v>6</v>
+      </c>
+      <c r="C68" t="s" s="6">
+        <v>13</v>
+      </c>
+      <c r="D68" s="12">
         <v>98.86</v>
       </c>
-      <c r="D8" s="13">
-        <v>4.225</v>
-      </c>
-      <c r="E8" s="14">
-        <v>3.629</v>
-      </c>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-    </row>
-    <row r="9" ht="20.7" customHeight="1">
-      <c r="A9" s="11">
-        <v>1</v>
-      </c>
-      <c r="B9" t="s" s="6">
-        <v>13</v>
-      </c>
-      <c r="C9" s="12">
+      <c r="E68" s="13"/>
+      <c r="F68" s="13"/>
+      <c r="G68" s="13">
+        <v>4.032</v>
+      </c>
+    </row>
+    <row r="69" ht="20.7" customHeight="1">
+      <c r="A69" s="10">
+        <v>68</v>
+      </c>
+      <c r="B69" s="11">
+        <v>6</v>
+      </c>
+      <c r="C69" t="s" s="6">
+        <v>14</v>
+      </c>
+      <c r="D69" s="12">
         <v>98</v>
       </c>
-      <c r="D9" s="13">
-        <v>4.153</v>
-      </c>
-      <c r="E9" s="14">
-        <v>3.567</v>
-      </c>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-    </row>
-    <row r="10" ht="20.7" customHeight="1">
-      <c r="A10" s="11">
-        <v>1</v>
-      </c>
-      <c r="B10" t="s" s="6">
-        <v>14</v>
-      </c>
-      <c r="C10" s="12">
+      <c r="E69" s="13"/>
+      <c r="F69" s="13"/>
+      <c r="G69" s="13">
+        <v>3.963</v>
+      </c>
+    </row>
+    <row r="70" ht="20.7" customHeight="1">
+      <c r="A70" s="10">
+        <v>69</v>
+      </c>
+      <c r="B70" s="11">
+        <v>6</v>
+      </c>
+      <c r="C70" t="s" s="6">
+        <v>15</v>
+      </c>
+      <c r="D70" s="12">
         <v>97.51000000000001</v>
       </c>
-      <c r="D10" s="13">
-        <v>4.115</v>
-      </c>
-      <c r="E10" s="14">
-        <v>3.535</v>
-      </c>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-    </row>
-    <row r="11" ht="20.7" customHeight="1">
-      <c r="A11" s="11">
-        <v>1</v>
-      </c>
-      <c r="B11" t="s" s="6">
-        <v>15</v>
-      </c>
-      <c r="C11" s="12">
+      <c r="E70" s="13"/>
+      <c r="F70" s="13"/>
+      <c r="G70" s="13">
+        <v>3.927</v>
+      </c>
+    </row>
+    <row r="71" ht="20.7" customHeight="1">
+      <c r="A71" s="10">
+        <v>70</v>
+      </c>
+      <c r="B71" s="11">
+        <v>6</v>
+      </c>
+      <c r="C71" t="s" s="6">
+        <v>16</v>
+      </c>
+      <c r="D71" s="12">
         <v>97.70999999999999</v>
       </c>
-      <c r="D11" s="13">
-        <v>4.141</v>
-      </c>
-      <c r="E11" s="14">
-        <v>3.557</v>
-      </c>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-    </row>
-    <row r="12" ht="20.7" customHeight="1">
-      <c r="A12" s="11">
-        <v>1</v>
-      </c>
-      <c r="B12" t="s" s="6">
-        <v>16</v>
-      </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="15"/>
-    </row>
-    <row r="13" ht="20.7" customHeight="1">
-      <c r="A13" s="11">
-        <v>1</v>
-      </c>
-      <c r="B13" t="s" s="6">
+      <c r="E71" s="13"/>
+      <c r="F71" s="13"/>
+      <c r="G71" s="13">
+        <v>3.952</v>
+      </c>
+    </row>
+    <row r="72" ht="20.7" customHeight="1">
+      <c r="A72" s="10">
+        <v>71</v>
+      </c>
+      <c r="B72" s="11">
+        <v>6</v>
+      </c>
+      <c r="C72" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="15"/>
-    </row>
-    <row r="14" ht="20.7" customHeight="1">
-      <c r="A14" s="11">
-        <v>2</v>
-      </c>
-      <c r="B14" t="s" s="6">
+      <c r="D72" s="12"/>
+      <c r="E72" s="13"/>
+      <c r="F72" s="13"/>
+      <c r="G72" s="13"/>
+    </row>
+    <row r="73" ht="20.7" customHeight="1">
+      <c r="A73" s="10">
+        <v>72</v>
+      </c>
+      <c r="B73" s="11">
         <v>6</v>
       </c>
-      <c r="C14" s="12">
-        <v>95.67</v>
-      </c>
-      <c r="D14" s="14">
-        <v>4.401</v>
-      </c>
-      <c r="E14" s="14">
-        <v>3.468</v>
-      </c>
-      <c r="F14" s="14"/>
-      <c r="G14" s="15"/>
-    </row>
-    <row r="15" ht="20.7" customHeight="1">
-      <c r="A15" s="11">
-        <v>2</v>
-      </c>
-      <c r="B15" t="s" s="6">
-        <v>7</v>
-      </c>
-      <c r="C15" s="12">
-        <v>97.01000000000001</v>
-      </c>
-      <c r="D15" s="14">
-        <v>4.57</v>
-      </c>
-      <c r="E15" s="14">
-        <v>3.601</v>
-      </c>
-      <c r="F15" s="14"/>
-      <c r="G15" s="15"/>
-    </row>
-    <row r="16" ht="20.7" customHeight="1">
-      <c r="A16" s="11">
-        <v>2</v>
-      </c>
-      <c r="B16" t="s" s="6">
-        <v>8</v>
-      </c>
-      <c r="C16" s="12">
-        <v>99.95</v>
-      </c>
-      <c r="D16" s="14">
-        <v>4.935</v>
-      </c>
-      <c r="E16" s="14">
-        <v>3.889</v>
-      </c>
-      <c r="F16" s="14"/>
-      <c r="G16" s="15"/>
-    </row>
-    <row r="17" ht="20.7" customHeight="1">
-      <c r="A17" s="11">
-        <v>2</v>
-      </c>
-      <c r="B17" t="s" s="6">
-        <v>9</v>
-      </c>
-      <c r="C17" s="12">
-        <v>100.55</v>
-      </c>
-      <c r="D17" s="14">
-        <v>4.863</v>
-      </c>
-      <c r="E17" s="14">
-        <v>3.833</v>
-      </c>
-      <c r="F17" s="14"/>
-      <c r="G17" s="15"/>
-    </row>
-    <row r="18" ht="20.7" customHeight="1">
-      <c r="A18" s="11">
-        <v>2</v>
-      </c>
-      <c r="B18" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="C18" s="12">
-        <v>99.84</v>
-      </c>
-      <c r="D18" s="14">
-        <v>4.628</v>
-      </c>
-      <c r="E18" s="14">
-        <v>3.647</v>
-      </c>
-      <c r="F18" s="14"/>
-      <c r="G18" s="15"/>
-    </row>
-    <row r="19" ht="20.7" customHeight="1">
-      <c r="A19" s="11">
-        <v>2</v>
-      </c>
-      <c r="B19" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="C19" s="12">
-        <v>98.70999999999999</v>
-      </c>
-      <c r="D19" s="14">
-        <v>4.612</v>
-      </c>
-      <c r="E19" s="14">
-        <v>3.635</v>
-      </c>
-      <c r="F19" s="14"/>
-      <c r="G19" s="15"/>
-    </row>
-    <row r="20" ht="20.7" customHeight="1">
-      <c r="A20" s="11">
-        <v>2</v>
-      </c>
-      <c r="B20" t="s" s="6">
-        <v>12</v>
-      </c>
-      <c r="C20" s="12">
-        <v>98.86</v>
-      </c>
-      <c r="D20" s="14">
-        <v>4.605</v>
-      </c>
-      <c r="E20" s="14">
-        <v>3.629</v>
-      </c>
-      <c r="F20" s="14"/>
-      <c r="G20" s="15"/>
-    </row>
-    <row r="21" ht="20.7" customHeight="1">
-      <c r="A21" s="11">
-        <v>2</v>
-      </c>
-      <c r="B21" t="s" s="6">
-        <v>13</v>
-      </c>
-      <c r="C21" s="12">
-        <v>98</v>
-      </c>
-      <c r="D21" s="14">
-        <v>4.526</v>
-      </c>
-      <c r="E21" s="14">
-        <v>3.567</v>
-      </c>
-      <c r="F21" s="14"/>
-      <c r="G21" s="15"/>
-    </row>
-    <row r="22" ht="20.7" customHeight="1">
-      <c r="A22" s="11">
-        <v>2</v>
-      </c>
-      <c r="B22" t="s" s="6">
-        <v>14</v>
-      </c>
-      <c r="C22" s="12">
-        <v>97.51000000000001</v>
-      </c>
-      <c r="D22" s="14">
-        <v>4.485</v>
-      </c>
-      <c r="E22" s="14">
-        <v>3.535</v>
-      </c>
-      <c r="F22" s="14"/>
-      <c r="G22" s="15"/>
-    </row>
-    <row r="23" ht="20.7" customHeight="1">
-      <c r="A23" s="11">
-        <v>2</v>
-      </c>
-      <c r="B23" t="s" s="6">
-        <v>15</v>
-      </c>
-      <c r="C23" s="12">
-        <v>97.70999999999999</v>
-      </c>
-      <c r="D23" s="14">
-        <v>4.513</v>
-      </c>
-      <c r="E23" s="14">
-        <v>3.557</v>
-      </c>
-      <c r="F23" s="14"/>
-      <c r="G23" s="15"/>
-    </row>
-    <row r="24" ht="20.7" customHeight="1">
-      <c r="A24" s="11">
-        <v>2</v>
-      </c>
-      <c r="B24" t="s" s="6">
-        <v>16</v>
-      </c>
-      <c r="C24" s="12"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="15"/>
-    </row>
-    <row r="25" ht="20.7" customHeight="1">
-      <c r="A25" s="11">
-        <v>2</v>
-      </c>
-      <c r="B25" t="s" s="6">
-        <v>17</v>
-      </c>
-      <c r="C25" s="12"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="15"/>
-    </row>
-    <row r="26" ht="20.7" customHeight="1">
-      <c r="A26" s="11">
-        <v>3</v>
-      </c>
-      <c r="B26" t="s" s="6">
-        <v>6</v>
-      </c>
-      <c r="C26" s="12">
-        <v>95.67</v>
-      </c>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14">
-        <v>4.156</v>
-      </c>
-      <c r="G26" s="15"/>
-    </row>
-    <row r="27" ht="20.7" customHeight="1">
-      <c r="A27" s="11">
-        <v>3</v>
-      </c>
-      <c r="B27" t="s" s="6">
-        <v>7</v>
-      </c>
-      <c r="C27" s="12">
-        <v>97.01000000000001</v>
-      </c>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14">
-        <v>4.315</v>
-      </c>
-      <c r="G27" s="15"/>
-    </row>
-    <row r="28" ht="20.7" customHeight="1">
-      <c r="A28" s="11">
-        <v>3</v>
-      </c>
-      <c r="B28" t="s" s="6">
-        <v>8</v>
-      </c>
-      <c r="C28" s="12">
-        <v>99.95</v>
-      </c>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14">
-        <v>4.66</v>
-      </c>
-      <c r="G28" s="15"/>
-    </row>
-    <row r="29" ht="20.7" customHeight="1">
-      <c r="A29" s="11">
-        <v>3</v>
-      </c>
-      <c r="B29" t="s" s="6">
-        <v>9</v>
-      </c>
-      <c r="C29" s="12">
-        <v>100.55</v>
-      </c>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14">
-        <v>4.592</v>
-      </c>
-      <c r="G29" s="15"/>
-    </row>
-    <row r="30" ht="20.7" customHeight="1">
-      <c r="A30" s="11">
-        <v>3</v>
-      </c>
-      <c r="B30" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="C30" s="12">
-        <v>99.84</v>
-      </c>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14">
-        <v>4.37</v>
-      </c>
-      <c r="G30" s="15"/>
-    </row>
-    <row r="31" ht="20.7" customHeight="1">
-      <c r="A31" s="11">
-        <v>3</v>
-      </c>
-      <c r="B31" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="C31" s="12">
-        <v>98.70999999999999</v>
-      </c>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14">
-        <v>4.355</v>
-      </c>
-      <c r="G31" s="15"/>
-    </row>
-    <row r="32" ht="20.7" customHeight="1">
-      <c r="A32" s="11">
-        <v>3</v>
-      </c>
-      <c r="B32" t="s" s="6">
-        <v>12</v>
-      </c>
-      <c r="C32" s="12">
-        <v>98.86</v>
-      </c>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14">
-        <v>4.348</v>
-      </c>
-      <c r="G32" s="15"/>
-    </row>
-    <row r="33" ht="20.7" customHeight="1">
-      <c r="A33" s="11">
-        <v>3</v>
-      </c>
-      <c r="B33" t="s" s="6">
-        <v>13</v>
-      </c>
-      <c r="C33" s="12">
-        <v>98</v>
-      </c>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14">
-        <v>4.274</v>
-      </c>
-      <c r="G33" s="15"/>
-    </row>
-    <row r="34" ht="20.7" customHeight="1">
-      <c r="A34" s="11">
-        <v>3</v>
-      </c>
-      <c r="B34" t="s" s="6">
-        <v>14</v>
-      </c>
-      <c r="C34" s="12">
-        <v>97.51000000000001</v>
-      </c>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14">
-        <v>4.235</v>
-      </c>
-      <c r="G34" s="15"/>
-    </row>
-    <row r="35" ht="20.7" customHeight="1">
-      <c r="A35" s="11">
-        <v>3</v>
-      </c>
-      <c r="B35" t="s" s="6">
-        <v>15</v>
-      </c>
-      <c r="C35" s="12">
-        <v>97.70999999999999</v>
-      </c>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14">
-        <v>4.262</v>
-      </c>
-      <c r="G35" s="15"/>
-    </row>
-    <row r="36" ht="20.7" customHeight="1">
-      <c r="A36" s="11">
-        <v>3</v>
-      </c>
-      <c r="B36" t="s" s="6">
-        <v>16</v>
-      </c>
-      <c r="C36" s="12"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="15"/>
-    </row>
-    <row r="37" ht="20.7" customHeight="1">
-      <c r="A37" s="11">
-        <v>3</v>
-      </c>
-      <c r="B37" t="s" s="6">
-        <v>17</v>
-      </c>
-      <c r="C37" s="12"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="15"/>
-    </row>
-    <row r="38" ht="20.7" customHeight="1">
-      <c r="A38" s="11">
-        <v>4</v>
-      </c>
-      <c r="B38" t="s" s="6">
-        <v>6</v>
-      </c>
-      <c r="C38" s="12">
-        <v>95.67</v>
-      </c>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14">
-        <v>3.891</v>
-      </c>
-      <c r="G38" s="15"/>
-    </row>
-    <row r="39" ht="20.7" customHeight="1">
-      <c r="A39" s="11">
-        <v>4</v>
-      </c>
-      <c r="B39" t="s" s="6">
-        <v>7</v>
-      </c>
-      <c r="C39" s="12">
-        <v>97.01000000000001</v>
-      </c>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14">
-        <v>4.04</v>
-      </c>
-      <c r="G39" s="15"/>
-    </row>
-    <row r="40" ht="20.7" customHeight="1">
-      <c r="A40" s="11">
-        <v>4</v>
-      </c>
-      <c r="B40" t="s" s="6">
-        <v>8</v>
-      </c>
-      <c r="C40" s="12">
-        <v>99.95</v>
-      </c>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14">
-        <v>4.363</v>
-      </c>
-      <c r="G40" s="15"/>
-    </row>
-    <row r="41" ht="20.7" customHeight="1">
-      <c r="A41" s="11">
-        <v>4</v>
-      </c>
-      <c r="B41" t="s" s="6">
-        <v>9</v>
-      </c>
-      <c r="C41" s="12">
-        <v>100.55</v>
-      </c>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14">
-        <v>4.3</v>
-      </c>
-      <c r="G41" s="15"/>
-    </row>
-    <row r="42" ht="20.7" customHeight="1">
-      <c r="A42" s="11">
-        <v>4</v>
-      </c>
-      <c r="B42" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="C42" s="12">
-        <v>99.84</v>
-      </c>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14">
-        <v>4.092</v>
-      </c>
-      <c r="G42" s="15"/>
-    </row>
-    <row r="43" ht="20.7" customHeight="1">
-      <c r="A43" s="11">
-        <v>4</v>
-      </c>
-      <c r="B43" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="C43" s="12">
-        <v>98.70999999999999</v>
-      </c>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14">
-        <v>4.078</v>
-      </c>
-      <c r="G43" s="15"/>
-    </row>
-    <row r="44" ht="20.7" customHeight="1">
-      <c r="A44" s="11">
-        <v>4</v>
-      </c>
-      <c r="B44" t="s" s="6">
-        <v>12</v>
-      </c>
-      <c r="C44" s="12">
-        <v>98.86</v>
-      </c>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14">
-        <v>4.071</v>
-      </c>
-      <c r="G44" s="15"/>
-    </row>
-    <row r="45" ht="20.7" customHeight="1">
-      <c r="A45" s="11">
-        <v>4</v>
-      </c>
-      <c r="B45" t="s" s="6">
-        <v>13</v>
-      </c>
-      <c r="C45" s="12">
-        <v>98</v>
-      </c>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14">
-        <v>4.001</v>
-      </c>
-      <c r="G45" s="15"/>
-    </row>
-    <row r="46" ht="20.7" customHeight="1">
-      <c r="A46" s="11">
-        <v>4</v>
-      </c>
-      <c r="B46" t="s" s="6">
-        <v>14</v>
-      </c>
-      <c r="C46" s="12">
-        <v>97.51000000000001</v>
-      </c>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14">
-        <v>3.965</v>
-      </c>
-      <c r="G46" s="15"/>
-    </row>
-    <row r="47" ht="20.7" customHeight="1">
-      <c r="A47" s="11">
-        <v>4</v>
-      </c>
-      <c r="B47" t="s" s="6">
-        <v>15</v>
-      </c>
-      <c r="C47" s="12">
-        <v>97.70999999999999</v>
-      </c>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14">
-        <v>3.99</v>
-      </c>
-      <c r="G47" s="15"/>
-    </row>
-    <row r="48" ht="20.7" customHeight="1">
-      <c r="A48" s="11">
-        <v>4</v>
-      </c>
-      <c r="B48" t="s" s="6">
-        <v>16</v>
-      </c>
-      <c r="C48" s="12"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
-      <c r="G48" s="15"/>
-    </row>
-    <row r="49" ht="20.7" customHeight="1">
-      <c r="A49" s="11">
-        <v>4</v>
-      </c>
-      <c r="B49" t="s" s="6">
-        <v>17</v>
-      </c>
-      <c r="C49" s="12"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="15"/>
-    </row>
-    <row r="50" ht="20.7" customHeight="1">
-      <c r="A50" s="11">
-        <v>5</v>
-      </c>
-      <c r="B50" t="s" s="6">
-        <v>6</v>
-      </c>
-      <c r="C50" s="12">
-        <v>95.67</v>
-      </c>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14">
-        <v>3.796</v>
-      </c>
-      <c r="G50" s="15"/>
-    </row>
-    <row r="51" ht="20.7" customHeight="1">
-      <c r="A51" s="11">
-        <v>5</v>
-      </c>
-      <c r="B51" t="s" s="6">
-        <v>7</v>
-      </c>
-      <c r="C51" s="12">
-        <v>97.01000000000001</v>
-      </c>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14">
-        <v>3.941</v>
-      </c>
-      <c r="G51" s="15"/>
-    </row>
-    <row r="52" ht="20.7" customHeight="1">
-      <c r="A52" s="11">
-        <v>5</v>
-      </c>
-      <c r="B52" t="s" s="6">
-        <v>8</v>
-      </c>
-      <c r="C52" s="12">
-        <v>99.95</v>
-      </c>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14">
-        <v>4.256</v>
-      </c>
-      <c r="G52" s="15"/>
-    </row>
-    <row r="53" ht="20.7" customHeight="1">
-      <c r="A53" s="11">
-        <v>5</v>
-      </c>
-      <c r="B53" t="s" s="6">
-        <v>9</v>
-      </c>
-      <c r="C53" s="12">
-        <v>100.55</v>
-      </c>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14">
-        <v>4.194</v>
-      </c>
-      <c r="G53" s="15"/>
-    </row>
-    <row r="54" ht="20.7" customHeight="1">
-      <c r="A54" s="11">
-        <v>5</v>
-      </c>
-      <c r="B54" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="C54" s="12">
-        <v>99.84</v>
-      </c>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14">
-        <v>3.991</v>
-      </c>
-      <c r="G54" s="15"/>
-    </row>
-    <row r="55" ht="20.7" customHeight="1">
-      <c r="A55" s="11">
-        <v>5</v>
-      </c>
-      <c r="B55" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="C55" s="12">
-        <v>98.70999999999999</v>
-      </c>
-      <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14">
-        <v>3.977</v>
-      </c>
-      <c r="G55" s="15"/>
-    </row>
-    <row r="56" ht="20.7" customHeight="1">
-      <c r="A56" s="11">
-        <v>5</v>
-      </c>
-      <c r="B56" t="s" s="6">
-        <v>12</v>
-      </c>
-      <c r="C56" s="12">
-        <v>98.86</v>
-      </c>
-      <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14">
-        <v>3.971</v>
-      </c>
-      <c r="G56" s="15"/>
-    </row>
-    <row r="57" ht="20.7" customHeight="1">
-      <c r="A57" s="11">
-        <v>5</v>
-      </c>
-      <c r="B57" t="s" s="6">
-        <v>13</v>
-      </c>
-      <c r="C57" s="12">
-        <v>98</v>
-      </c>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14">
-        <v>3.903</v>
-      </c>
-      <c r="G57" s="15"/>
-    </row>
-    <row r="58" ht="20.7" customHeight="1">
-      <c r="A58" s="11">
-        <v>5</v>
-      </c>
-      <c r="B58" t="s" s="6">
-        <v>14</v>
-      </c>
-      <c r="C58" s="12">
-        <v>97.51000000000001</v>
-      </c>
-      <c r="D58" s="14"/>
-      <c r="E58" s="14"/>
-      <c r="F58" s="14">
-        <v>3.867</v>
-      </c>
-      <c r="G58" s="15"/>
-    </row>
-    <row r="59" ht="20.7" customHeight="1">
-      <c r="A59" s="11">
-        <v>5</v>
-      </c>
-      <c r="B59" t="s" s="6">
-        <v>15</v>
-      </c>
-      <c r="C59" s="12">
-        <v>97.70999999999999</v>
-      </c>
-      <c r="D59" s="14"/>
-      <c r="E59" s="14"/>
-      <c r="F59" s="14">
-        <v>3.891</v>
-      </c>
-      <c r="G59" s="15"/>
-    </row>
-    <row r="60" ht="20.7" customHeight="1">
-      <c r="A60" s="11">
-        <v>5</v>
-      </c>
-      <c r="B60" t="s" s="6">
-        <v>16</v>
-      </c>
-      <c r="C60" s="12"/>
-      <c r="D60" s="14"/>
-      <c r="E60" s="14"/>
-      <c r="F60" s="14"/>
-      <c r="G60" s="15"/>
-    </row>
-    <row r="61" ht="20.7" customHeight="1">
-      <c r="A61" s="11">
-        <v>5</v>
-      </c>
-      <c r="B61" t="s" s="6">
-        <v>17</v>
-      </c>
-      <c r="C61" s="12"/>
-      <c r="D61" s="14"/>
-      <c r="E61" s="14"/>
-      <c r="F61" s="14"/>
-      <c r="G61" s="15"/>
-    </row>
-    <row r="62" ht="20.7" customHeight="1">
-      <c r="A62" s="11">
-        <v>6</v>
-      </c>
-      <c r="B62" t="s" s="6">
-        <v>6</v>
-      </c>
-      <c r="C62" s="12">
-        <v>95.67</v>
-      </c>
-      <c r="D62" s="14"/>
-      <c r="E62" s="14"/>
-      <c r="F62" s="14">
-        <v>3.853</v>
-      </c>
-      <c r="G62" s="15"/>
-    </row>
-    <row r="63" ht="20.7" customHeight="1">
-      <c r="A63" s="11">
-        <v>6</v>
-      </c>
-      <c r="B63" t="s" s="6">
-        <v>7</v>
-      </c>
-      <c r="C63" s="12">
-        <v>97.01000000000001</v>
-      </c>
-      <c r="D63" s="14"/>
-      <c r="E63" s="14"/>
-      <c r="F63" s="14">
-        <v>4.001</v>
-      </c>
-      <c r="G63" s="15"/>
-    </row>
-    <row r="64" ht="20.7" customHeight="1">
-      <c r="A64" s="11">
-        <v>6</v>
-      </c>
-      <c r="B64" t="s" s="6">
-        <v>8</v>
-      </c>
-      <c r="C64" s="12">
-        <v>99.95</v>
-      </c>
-      <c r="D64" s="14"/>
-      <c r="E64" s="14"/>
-      <c r="F64" s="14">
-        <v>4.321</v>
-      </c>
-      <c r="G64" s="15"/>
-    </row>
-    <row r="65" ht="20.7" customHeight="1">
-      <c r="A65" s="11">
-        <v>6</v>
-      </c>
-      <c r="B65" t="s" s="6">
-        <v>9</v>
-      </c>
-      <c r="C65" s="12">
-        <v>100.55</v>
-      </c>
-      <c r="D65" s="14"/>
-      <c r="E65" s="14"/>
-      <c r="F65" s="14">
-        <v>4.258</v>
-      </c>
-      <c r="G65" s="15"/>
-    </row>
-    <row r="66" ht="20.7" customHeight="1">
-      <c r="A66" s="11">
-        <v>6</v>
-      </c>
-      <c r="B66" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="C66" s="12">
-        <v>99.84</v>
-      </c>
-      <c r="D66" s="14"/>
-      <c r="E66" s="14"/>
-      <c r="F66" s="14">
-        <v>4.052</v>
-      </c>
-      <c r="G66" s="15"/>
-    </row>
-    <row r="67" ht="20.7" customHeight="1">
-      <c r="A67" s="11">
-        <v>6</v>
-      </c>
-      <c r="B67" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="C67" s="12">
-        <v>98.70999999999999</v>
-      </c>
-      <c r="D67" s="14"/>
-      <c r="E67" s="14"/>
-      <c r="F67" s="14">
-        <v>4.038</v>
-      </c>
-      <c r="G67" s="15"/>
-    </row>
-    <row r="68" ht="20.7" customHeight="1">
-      <c r="A68" s="11">
-        <v>6</v>
-      </c>
-      <c r="B68" t="s" s="6">
-        <v>12</v>
-      </c>
-      <c r="C68" s="12">
-        <v>98.86</v>
-      </c>
-      <c r="D68" s="14"/>
-      <c r="E68" s="14"/>
-      <c r="F68" s="14">
-        <v>4.032</v>
-      </c>
-      <c r="G68" s="15"/>
-    </row>
-    <row r="69" ht="20.7" customHeight="1">
-      <c r="A69" s="11">
-        <v>6</v>
-      </c>
-      <c r="B69" t="s" s="6">
-        <v>13</v>
-      </c>
-      <c r="C69" s="12">
-        <v>98</v>
-      </c>
-      <c r="D69" s="14"/>
-      <c r="E69" s="14"/>
-      <c r="F69" s="14">
-        <v>3.963</v>
-      </c>
-      <c r="G69" s="15"/>
-    </row>
-    <row r="70" ht="20.7" customHeight="1">
-      <c r="A70" s="11">
-        <v>6</v>
-      </c>
-      <c r="B70" t="s" s="6">
-        <v>14</v>
-      </c>
-      <c r="C70" s="12">
-        <v>97.51000000000001</v>
-      </c>
-      <c r="D70" s="14"/>
-      <c r="E70" s="14"/>
-      <c r="F70" s="14">
-        <v>3.927</v>
-      </c>
-      <c r="G70" s="15"/>
-    </row>
-    <row r="71" ht="20.7" customHeight="1">
-      <c r="A71" s="11">
-        <v>6</v>
-      </c>
-      <c r="B71" t="s" s="6">
-        <v>15</v>
-      </c>
-      <c r="C71" s="12">
-        <v>97.70999999999999</v>
-      </c>
-      <c r="D71" s="14"/>
-      <c r="E71" s="14"/>
-      <c r="F71" s="14">
-        <v>3.952</v>
-      </c>
-      <c r="G71" s="15"/>
-    </row>
-    <row r="72" ht="20.7" customHeight="1">
-      <c r="A72" s="11">
-        <v>6</v>
-      </c>
-      <c r="B72" t="s" s="6">
-        <v>16</v>
-      </c>
-      <c r="C72" s="12"/>
-      <c r="D72" s="14"/>
-      <c r="E72" s="14"/>
-      <c r="F72" s="14"/>
-      <c r="G72" s="15"/>
-    </row>
-    <row r="73" ht="20.7" customHeight="1">
-      <c r="A73" s="11">
-        <v>6</v>
-      </c>
-      <c r="B73" t="s" s="6">
-        <v>17</v>
-      </c>
-      <c r="C73" s="12"/>
-      <c r="D73" s="14"/>
-      <c r="E73" s="14"/>
-      <c r="F73" s="14"/>
-      <c r="G73" s="15"/>
+      <c r="C73" t="s" s="6">
+        <v>18</v>
+      </c>
+      <c r="D73" s="12"/>
+      <c r="E73" s="13"/>
+      <c r="F73" s="13"/>
+      <c r="G73" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>

--- a/easylight/doc/Tarifa_Alto_Consumo.xlsx
+++ b/easylight/doc/Tarifa_Alto_Consumo.xlsx
@@ -78,7 +78,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -99,6 +99,11 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="13"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="4">
@@ -121,7 +126,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -264,13 +269,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -298,9 +318,6 @@
     <xf numFmtId="2" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -313,7 +330,16 @@
     <xf numFmtId="2" fontId="0" fillId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="2" fontId="4" fillId="3" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -337,6 +363,7 @@
       <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ff3f3f3f"/>
       <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ff333333"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -1459,1346 +1486,1642 @@
       <c r="F2" s="8">
         <v>3.468</v>
       </c>
-      <c r="G2" s="9"/>
+      <c r="G2" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" ht="20.7" customHeight="1">
-      <c r="A3" s="10">
+      <c r="A3" s="9">
         <v>2</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="10">
         <v>1</v>
       </c>
       <c r="C3" t="s" s="6">
         <v>8</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="11">
         <v>97.01000000000001</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="9">
         <v>4.193</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="12">
         <v>3.601</v>
       </c>
-      <c r="G3" s="14"/>
+      <c r="G3" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" ht="20.7" customHeight="1">
-      <c r="A4" s="10">
+      <c r="A4" s="9">
         <v>3</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="10">
         <v>1</v>
       </c>
       <c r="C4" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="11">
         <v>99.95</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="9">
         <v>4.528</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="12">
         <v>3.889</v>
       </c>
-      <c r="G4" s="14"/>
+      <c r="G4" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" ht="20.7" customHeight="1">
-      <c r="A5" s="10">
+      <c r="A5" s="9">
         <v>4</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="10">
         <v>1</v>
       </c>
       <c r="C5" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="11">
         <v>100.55</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="9">
         <v>4.462</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="12">
         <v>3.833</v>
       </c>
-      <c r="G5" s="14"/>
+      <c r="G5" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" ht="20.7" customHeight="1">
-      <c r="A6" s="10">
+      <c r="A6" s="9">
         <v>5</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="10">
         <v>1</v>
       </c>
       <c r="C6" t="s" s="6">
         <v>11</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="11">
         <v>99.84</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="9">
         <v>4.246</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="12">
         <v>3.647</v>
       </c>
-      <c r="G6" s="14"/>
+      <c r="G6" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" ht="20.7" customHeight="1">
-      <c r="A7" s="10">
+      <c r="A7" s="9">
         <v>6</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="10">
         <v>1</v>
       </c>
       <c r="C7" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="11">
         <v>98.70999999999999</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="9">
         <v>4.232</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="12">
         <v>3.635</v>
       </c>
-      <c r="G7" s="14"/>
+      <c r="G7" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" ht="20.7" customHeight="1">
-      <c r="A8" s="10">
+      <c r="A8" s="9">
         <v>7</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="10">
         <v>1</v>
       </c>
       <c r="C8" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="11">
         <v>98.86</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="9">
         <v>4.225</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="12">
         <v>3.629</v>
       </c>
-      <c r="G8" s="14"/>
+      <c r="G8" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" ht="20.7" customHeight="1">
-      <c r="A9" s="10">
+      <c r="A9" s="9">
         <v>8</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="10">
         <v>1</v>
       </c>
       <c r="C9" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="11">
         <v>98</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="9">
         <v>4.153</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="12">
         <v>3.567</v>
       </c>
-      <c r="G9" s="14"/>
+      <c r="G9" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" ht="20.7" customHeight="1">
-      <c r="A10" s="10">
+      <c r="A10" s="9">
         <v>9</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="10">
         <v>1</v>
       </c>
       <c r="C10" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="11">
         <v>97.51000000000001</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="9">
         <v>4.115</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="12">
         <v>3.535</v>
       </c>
-      <c r="G10" s="14"/>
+      <c r="G10" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" ht="20.7" customHeight="1">
-      <c r="A11" s="10">
+      <c r="A11" s="9">
         <v>10</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="10">
         <v>1</v>
       </c>
       <c r="C11" t="s" s="6">
         <v>16</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="11">
         <v>97.70999999999999</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="9">
         <v>4.141</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F11" s="12">
         <v>3.557</v>
       </c>
-      <c r="G11" s="14"/>
+      <c r="G11" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" ht="20.7" customHeight="1">
-      <c r="A12" s="10">
+      <c r="A12" s="9">
         <v>11</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="10">
         <v>1</v>
       </c>
       <c r="C12" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
+      <c r="D12" s="13">
+        <v>98.04000000000001</v>
+      </c>
+      <c r="E12" s="12">
+        <v>4.201</v>
+      </c>
+      <c r="F12" s="14">
+        <v>3.61</v>
+      </c>
+      <c r="G12" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" ht="20.7" customHeight="1">
-      <c r="A13" s="10">
+      <c r="A13" s="9">
         <v>12</v>
       </c>
-      <c r="B13" s="11">
+      <c r="B13" s="10">
         <v>1</v>
       </c>
       <c r="C13" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
+      <c r="D13" s="11">
+        <v>0</v>
+      </c>
+      <c r="E13" s="12">
+        <v>0</v>
+      </c>
+      <c r="F13" s="12">
+        <v>0</v>
+      </c>
+      <c r="G13" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" ht="20.7" customHeight="1">
-      <c r="A14" s="10">
+      <c r="A14" s="9">
         <v>13</v>
       </c>
-      <c r="B14" s="11">
+      <c r="B14" s="10">
         <v>2</v>
       </c>
       <c r="C14" t="s" s="6">
         <v>7</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="11">
         <v>95.67</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E14" s="12">
         <v>4.401</v>
       </c>
-      <c r="F14" s="13">
+      <c r="F14" s="12">
         <v>3.468</v>
       </c>
-      <c r="G14" s="13"/>
+      <c r="G14" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" ht="20.7" customHeight="1">
-      <c r="A15" s="10">
+      <c r="A15" s="9">
         <v>14</v>
       </c>
-      <c r="B15" s="11">
+      <c r="B15" s="10">
         <v>2</v>
       </c>
       <c r="C15" t="s" s="6">
         <v>8</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="11">
         <v>97.01000000000001</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E15" s="12">
         <v>4.57</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F15" s="12">
         <v>3.601</v>
       </c>
-      <c r="G15" s="13"/>
+      <c r="G15" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" ht="20.7" customHeight="1">
-      <c r="A16" s="10">
+      <c r="A16" s="9">
         <v>15</v>
       </c>
-      <c r="B16" s="11">
+      <c r="B16" s="10">
         <v>2</v>
       </c>
       <c r="C16" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16" s="11">
         <v>99.95</v>
       </c>
-      <c r="E16" s="13">
+      <c r="E16" s="12">
         <v>4.935</v>
       </c>
-      <c r="F16" s="13">
+      <c r="F16" s="12">
         <v>3.889</v>
       </c>
-      <c r="G16" s="13"/>
+      <c r="G16" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" ht="20.7" customHeight="1">
-      <c r="A17" s="10">
+      <c r="A17" s="9">
         <v>16</v>
       </c>
-      <c r="B17" s="11">
+      <c r="B17" s="10">
         <v>2</v>
       </c>
       <c r="C17" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D17" s="11">
         <v>100.55</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E17" s="12">
         <v>4.863</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F17" s="12">
         <v>3.833</v>
       </c>
-      <c r="G17" s="13"/>
+      <c r="G17" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" ht="20.7" customHeight="1">
-      <c r="A18" s="10">
+      <c r="A18" s="9">
         <v>17</v>
       </c>
-      <c r="B18" s="11">
+      <c r="B18" s="10">
         <v>2</v>
       </c>
       <c r="C18" t="s" s="6">
         <v>11</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D18" s="11">
         <v>99.84</v>
       </c>
-      <c r="E18" s="13">
+      <c r="E18" s="12">
         <v>4.628</v>
       </c>
-      <c r="F18" s="13">
+      <c r="F18" s="12">
         <v>3.647</v>
       </c>
-      <c r="G18" s="13"/>
+      <c r="G18" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" ht="20.7" customHeight="1">
-      <c r="A19" s="10">
+      <c r="A19" s="9">
         <v>18</v>
       </c>
-      <c r="B19" s="11">
+      <c r="B19" s="10">
         <v>2</v>
       </c>
       <c r="C19" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D19" s="11">
         <v>98.70999999999999</v>
       </c>
-      <c r="E19" s="13">
+      <c r="E19" s="12">
         <v>4.612</v>
       </c>
-      <c r="F19" s="13">
+      <c r="F19" s="12">
         <v>3.635</v>
       </c>
-      <c r="G19" s="13"/>
+      <c r="G19" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" ht="20.7" customHeight="1">
-      <c r="A20" s="10">
+      <c r="A20" s="9">
         <v>19</v>
       </c>
-      <c r="B20" s="11">
+      <c r="B20" s="10">
         <v>2</v>
       </c>
       <c r="C20" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D20" s="11">
         <v>98.86</v>
       </c>
-      <c r="E20" s="13">
+      <c r="E20" s="12">
         <v>4.605</v>
       </c>
-      <c r="F20" s="13">
+      <c r="F20" s="12">
         <v>3.629</v>
       </c>
-      <c r="G20" s="13"/>
+      <c r="G20" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" ht="20.7" customHeight="1">
-      <c r="A21" s="10">
+      <c r="A21" s="9">
         <v>20</v>
       </c>
-      <c r="B21" s="11">
+      <c r="B21" s="10">
         <v>2</v>
       </c>
       <c r="C21" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="D21" s="12">
+      <c r="D21" s="11">
         <v>98</v>
       </c>
-      <c r="E21" s="13">
+      <c r="E21" s="12">
         <v>4.526</v>
       </c>
-      <c r="F21" s="13">
+      <c r="F21" s="12">
         <v>3.567</v>
       </c>
-      <c r="G21" s="13"/>
+      <c r="G21" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" ht="20.7" customHeight="1">
-      <c r="A22" s="10">
+      <c r="A22" s="9">
         <v>21</v>
       </c>
-      <c r="B22" s="11">
+      <c r="B22" s="10">
         <v>2</v>
       </c>
       <c r="C22" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="D22" s="12">
+      <c r="D22" s="11">
         <v>97.51000000000001</v>
       </c>
-      <c r="E22" s="13">
+      <c r="E22" s="12">
         <v>4.485</v>
       </c>
-      <c r="F22" s="13">
+      <c r="F22" s="12">
         <v>3.535</v>
       </c>
-      <c r="G22" s="13"/>
+      <c r="G22" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" ht="20.7" customHeight="1">
-      <c r="A23" s="10">
+      <c r="A23" s="9">
         <v>22</v>
       </c>
-      <c r="B23" s="11">
+      <c r="B23" s="10">
         <v>2</v>
       </c>
       <c r="C23" t="s" s="6">
         <v>16</v>
       </c>
-      <c r="D23" s="12">
+      <c r="D23" s="11">
         <v>97.70999999999999</v>
       </c>
-      <c r="E23" s="13">
+      <c r="E23" s="12">
         <v>4.513</v>
       </c>
-      <c r="F23" s="13">
+      <c r="F23" s="12">
         <v>3.557</v>
       </c>
-      <c r="G23" s="13"/>
+      <c r="G23" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" ht="20.7" customHeight="1">
-      <c r="A24" s="10">
+      <c r="A24" s="9">
         <v>23</v>
       </c>
-      <c r="B24" s="11">
+      <c r="B24" s="10">
         <v>2</v>
       </c>
       <c r="C24" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="D24" s="12"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
+      <c r="D24" s="15">
+        <v>98.04000000000001</v>
+      </c>
+      <c r="E24" s="11">
+        <v>4.58</v>
+      </c>
+      <c r="F24" s="12">
+        <v>3.61</v>
+      </c>
+      <c r="G24" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" ht="20.7" customHeight="1">
-      <c r="A25" s="10">
+      <c r="A25" s="9">
         <v>24</v>
       </c>
-      <c r="B25" s="11">
+      <c r="B25" s="10">
         <v>2</v>
       </c>
       <c r="C25" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D25" s="12"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
+      <c r="D25" s="15">
+        <v>0</v>
+      </c>
+      <c r="E25" s="15">
+        <v>0</v>
+      </c>
+      <c r="F25" s="11">
+        <v>0</v>
+      </c>
+      <c r="G25" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" ht="20.7" customHeight="1">
-      <c r="A26" s="10">
+      <c r="A26" s="9">
         <v>25</v>
       </c>
-      <c r="B26" s="11">
+      <c r="B26" s="10">
         <v>3</v>
       </c>
       <c r="C26" t="s" s="6">
         <v>7</v>
       </c>
-      <c r="D26" s="12">
+      <c r="D26" s="11">
         <v>95.67</v>
       </c>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13">
+      <c r="E26" s="12">
+        <v>0</v>
+      </c>
+      <c r="F26" s="12">
+        <v>0</v>
+      </c>
+      <c r="G26" s="12">
         <v>4.156</v>
       </c>
     </row>
     <row r="27" ht="20.7" customHeight="1">
-      <c r="A27" s="10">
+      <c r="A27" s="9">
         <v>26</v>
       </c>
-      <c r="B27" s="11">
+      <c r="B27" s="10">
         <v>3</v>
       </c>
       <c r="C27" t="s" s="6">
         <v>8</v>
       </c>
-      <c r="D27" s="12">
+      <c r="D27" s="11">
         <v>97.01000000000001</v>
       </c>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13">
+      <c r="E27" s="12">
+        <v>0</v>
+      </c>
+      <c r="F27" s="12">
+        <v>0</v>
+      </c>
+      <c r="G27" s="12">
         <v>4.315</v>
       </c>
     </row>
     <row r="28" ht="20.7" customHeight="1">
-      <c r="A28" s="10">
+      <c r="A28" s="9">
         <v>27</v>
       </c>
-      <c r="B28" s="11">
+      <c r="B28" s="10">
         <v>3</v>
       </c>
       <c r="C28" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="D28" s="12">
+      <c r="D28" s="11">
         <v>99.95</v>
       </c>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13">
+      <c r="E28" s="12">
+        <v>0</v>
+      </c>
+      <c r="F28" s="12">
+        <v>0</v>
+      </c>
+      <c r="G28" s="12">
         <v>4.66</v>
       </c>
     </row>
     <row r="29" ht="20.7" customHeight="1">
-      <c r="A29" s="10">
+      <c r="A29" s="9">
         <v>28</v>
       </c>
-      <c r="B29" s="11">
+      <c r="B29" s="10">
         <v>3</v>
       </c>
       <c r="C29" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="D29" s="12">
+      <c r="D29" s="11">
         <v>100.55</v>
       </c>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13">
+      <c r="E29" s="12">
+        <v>0</v>
+      </c>
+      <c r="F29" s="12">
+        <v>0</v>
+      </c>
+      <c r="G29" s="12">
         <v>4.592</v>
       </c>
     </row>
     <row r="30" ht="20.7" customHeight="1">
-      <c r="A30" s="10">
+      <c r="A30" s="9">
         <v>29</v>
       </c>
-      <c r="B30" s="11">
+      <c r="B30" s="10">
         <v>3</v>
       </c>
       <c r="C30" t="s" s="6">
         <v>11</v>
       </c>
-      <c r="D30" s="12">
+      <c r="D30" s="11">
         <v>99.84</v>
       </c>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13">
+      <c r="E30" s="12">
+        <v>0</v>
+      </c>
+      <c r="F30" s="12">
+        <v>0</v>
+      </c>
+      <c r="G30" s="12">
         <v>4.37</v>
       </c>
     </row>
     <row r="31" ht="20.7" customHeight="1">
-      <c r="A31" s="10">
+      <c r="A31" s="9">
         <v>30</v>
       </c>
-      <c r="B31" s="11">
+      <c r="B31" s="10">
         <v>3</v>
       </c>
       <c r="C31" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="D31" s="12">
+      <c r="D31" s="11">
         <v>98.70999999999999</v>
       </c>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13">
+      <c r="E31" s="12">
+        <v>0</v>
+      </c>
+      <c r="F31" s="12">
+        <v>0</v>
+      </c>
+      <c r="G31" s="12">
         <v>4.355</v>
       </c>
     </row>
     <row r="32" ht="20.7" customHeight="1">
-      <c r="A32" s="10">
+      <c r="A32" s="9">
         <v>31</v>
       </c>
-      <c r="B32" s="11">
+      <c r="B32" s="10">
         <v>3</v>
       </c>
       <c r="C32" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="D32" s="12">
+      <c r="D32" s="11">
         <v>98.86</v>
       </c>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13">
+      <c r="E32" s="12">
+        <v>0</v>
+      </c>
+      <c r="F32" s="12">
+        <v>0</v>
+      </c>
+      <c r="G32" s="12">
         <v>4.348</v>
       </c>
     </row>
     <row r="33" ht="20.7" customHeight="1">
-      <c r="A33" s="10">
+      <c r="A33" s="9">
         <v>32</v>
       </c>
-      <c r="B33" s="11">
+      <c r="B33" s="10">
         <v>3</v>
       </c>
       <c r="C33" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="D33" s="12">
+      <c r="D33" s="11">
         <v>98</v>
       </c>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13">
+      <c r="E33" s="12">
+        <v>0</v>
+      </c>
+      <c r="F33" s="12">
+        <v>0</v>
+      </c>
+      <c r="G33" s="12">
         <v>4.274</v>
       </c>
     </row>
     <row r="34" ht="20.7" customHeight="1">
-      <c r="A34" s="10">
+      <c r="A34" s="9">
         <v>33</v>
       </c>
-      <c r="B34" s="11">
+      <c r="B34" s="10">
         <v>3</v>
       </c>
       <c r="C34" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="D34" s="12">
+      <c r="D34" s="11">
         <v>97.51000000000001</v>
       </c>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13">
+      <c r="E34" s="12">
+        <v>0</v>
+      </c>
+      <c r="F34" s="12">
+        <v>0</v>
+      </c>
+      <c r="G34" s="12">
         <v>4.235</v>
       </c>
     </row>
     <row r="35" ht="20.7" customHeight="1">
-      <c r="A35" s="10">
+      <c r="A35" s="9">
         <v>34</v>
       </c>
-      <c r="B35" s="11">
+      <c r="B35" s="10">
         <v>3</v>
       </c>
       <c r="C35" t="s" s="6">
         <v>16</v>
       </c>
-      <c r="D35" s="12">
+      <c r="D35" s="11">
         <v>97.70999999999999</v>
       </c>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13">
+      <c r="E35" s="12">
+        <v>0</v>
+      </c>
+      <c r="F35" s="12">
+        <v>0</v>
+      </c>
+      <c r="G35" s="12">
         <v>4.262</v>
       </c>
     </row>
     <row r="36" ht="20.7" customHeight="1">
-      <c r="A36" s="10">
+      <c r="A36" s="9">
         <v>35</v>
       </c>
-      <c r="B36" s="11">
+      <c r="B36" s="10">
         <v>3</v>
       </c>
       <c r="C36" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="D36" s="12"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
+      <c r="D36" s="11">
+        <v>98.04000000000001</v>
+      </c>
+      <c r="E36" s="16">
+        <v>0</v>
+      </c>
+      <c r="F36" s="15">
+        <v>0</v>
+      </c>
+      <c r="G36" s="11">
+        <v>4.32</v>
+      </c>
     </row>
     <row r="37" ht="20.7" customHeight="1">
-      <c r="A37" s="10">
+      <c r="A37" s="9">
         <v>36</v>
       </c>
-      <c r="B37" s="11">
+      <c r="B37" s="10">
         <v>3</v>
       </c>
       <c r="C37" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D37" s="12"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
+      <c r="D37" s="15">
+        <v>0</v>
+      </c>
+      <c r="E37" s="15">
+        <v>0</v>
+      </c>
+      <c r="F37" s="15">
+        <v>0</v>
+      </c>
+      <c r="G37" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="38" ht="20.7" customHeight="1">
-      <c r="A38" s="10">
+      <c r="A38" s="9">
         <v>37</v>
       </c>
-      <c r="B38" s="11">
+      <c r="B38" s="10">
         <v>4</v>
       </c>
       <c r="C38" t="s" s="6">
         <v>7</v>
       </c>
-      <c r="D38" s="12">
+      <c r="D38" s="11">
         <v>95.67</v>
       </c>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="13">
+      <c r="E38" s="12">
+        <v>0</v>
+      </c>
+      <c r="F38" s="12">
+        <v>0</v>
+      </c>
+      <c r="G38" s="12">
         <v>3.891</v>
       </c>
     </row>
     <row r="39" ht="20.7" customHeight="1">
-      <c r="A39" s="10">
+      <c r="A39" s="9">
         <v>38</v>
       </c>
-      <c r="B39" s="11">
+      <c r="B39" s="10">
         <v>4</v>
       </c>
       <c r="C39" t="s" s="6">
         <v>8</v>
       </c>
-      <c r="D39" s="12">
+      <c r="D39" s="11">
         <v>97.01000000000001</v>
       </c>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="13">
+      <c r="E39" s="12">
+        <v>0</v>
+      </c>
+      <c r="F39" s="12">
+        <v>0</v>
+      </c>
+      <c r="G39" s="12">
         <v>4.04</v>
       </c>
     </row>
     <row r="40" ht="20.7" customHeight="1">
-      <c r="A40" s="10">
+      <c r="A40" s="9">
         <v>39</v>
       </c>
-      <c r="B40" s="11">
+      <c r="B40" s="10">
         <v>4</v>
       </c>
       <c r="C40" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="D40" s="12">
+      <c r="D40" s="11">
         <v>99.95</v>
       </c>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="13">
+      <c r="E40" s="12">
+        <v>0</v>
+      </c>
+      <c r="F40" s="12">
+        <v>0</v>
+      </c>
+      <c r="G40" s="12">
         <v>4.363</v>
       </c>
     </row>
     <row r="41" ht="20.7" customHeight="1">
-      <c r="A41" s="10">
+      <c r="A41" s="9">
         <v>40</v>
       </c>
-      <c r="B41" s="11">
+      <c r="B41" s="10">
         <v>4</v>
       </c>
       <c r="C41" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="D41" s="12">
+      <c r="D41" s="11">
         <v>100.55</v>
       </c>
-      <c r="E41" s="13"/>
-      <c r="F41" s="13"/>
-      <c r="G41" s="13">
+      <c r="E41" s="12">
+        <v>0</v>
+      </c>
+      <c r="F41" s="12">
+        <v>0</v>
+      </c>
+      <c r="G41" s="12">
         <v>4.3</v>
       </c>
     </row>
     <row r="42" ht="20.7" customHeight="1">
-      <c r="A42" s="10">
+      <c r="A42" s="9">
         <v>41</v>
       </c>
-      <c r="B42" s="11">
+      <c r="B42" s="10">
         <v>4</v>
       </c>
       <c r="C42" t="s" s="6">
         <v>11</v>
       </c>
-      <c r="D42" s="12">
+      <c r="D42" s="11">
         <v>99.84</v>
       </c>
-      <c r="E42" s="13"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="13">
+      <c r="E42" s="12">
+        <v>0</v>
+      </c>
+      <c r="F42" s="12">
+        <v>0</v>
+      </c>
+      <c r="G42" s="12">
         <v>4.092</v>
       </c>
     </row>
     <row r="43" ht="20.7" customHeight="1">
-      <c r="A43" s="10">
+      <c r="A43" s="9">
         <v>42</v>
       </c>
-      <c r="B43" s="11">
+      <c r="B43" s="10">
         <v>4</v>
       </c>
       <c r="C43" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="D43" s="12">
+      <c r="D43" s="11">
         <v>98.70999999999999</v>
       </c>
-      <c r="E43" s="13"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="13">
+      <c r="E43" s="12">
+        <v>0</v>
+      </c>
+      <c r="F43" s="12">
+        <v>0</v>
+      </c>
+      <c r="G43" s="12">
         <v>4.078</v>
       </c>
     </row>
     <row r="44" ht="20.7" customHeight="1">
-      <c r="A44" s="10">
+      <c r="A44" s="9">
         <v>43</v>
       </c>
-      <c r="B44" s="11">
+      <c r="B44" s="10">
         <v>4</v>
       </c>
       <c r="C44" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="D44" s="12">
+      <c r="D44" s="11">
         <v>98.86</v>
       </c>
-      <c r="E44" s="13"/>
-      <c r="F44" s="13"/>
-      <c r="G44" s="13">
+      <c r="E44" s="12">
+        <v>0</v>
+      </c>
+      <c r="F44" s="12">
+        <v>0</v>
+      </c>
+      <c r="G44" s="12">
         <v>4.071</v>
       </c>
     </row>
     <row r="45" ht="20.7" customHeight="1">
-      <c r="A45" s="10">
+      <c r="A45" s="9">
         <v>44</v>
       </c>
-      <c r="B45" s="11">
+      <c r="B45" s="10">
         <v>4</v>
       </c>
       <c r="C45" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="D45" s="12">
+      <c r="D45" s="11">
         <v>98</v>
       </c>
-      <c r="E45" s="13"/>
-      <c r="F45" s="13"/>
-      <c r="G45" s="13">
+      <c r="E45" s="12">
+        <v>0</v>
+      </c>
+      <c r="F45" s="12">
+        <v>0</v>
+      </c>
+      <c r="G45" s="12">
         <v>4.001</v>
       </c>
     </row>
     <row r="46" ht="20.7" customHeight="1">
-      <c r="A46" s="10">
+      <c r="A46" s="9">
         <v>45</v>
       </c>
-      <c r="B46" s="11">
+      <c r="B46" s="10">
         <v>4</v>
       </c>
       <c r="C46" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="D46" s="12">
+      <c r="D46" s="11">
         <v>97.51000000000001</v>
       </c>
-      <c r="E46" s="13"/>
-      <c r="F46" s="13"/>
-      <c r="G46" s="13">
+      <c r="E46" s="12">
+        <v>0</v>
+      </c>
+      <c r="F46" s="12">
+        <v>0</v>
+      </c>
+      <c r="G46" s="12">
         <v>3.965</v>
       </c>
     </row>
     <row r="47" ht="20.7" customHeight="1">
-      <c r="A47" s="10">
+      <c r="A47" s="9">
         <v>46</v>
       </c>
-      <c r="B47" s="11">
+      <c r="B47" s="10">
         <v>4</v>
       </c>
       <c r="C47" t="s" s="6">
         <v>16</v>
       </c>
-      <c r="D47" s="12">
+      <c r="D47" s="11">
         <v>97.70999999999999</v>
       </c>
-      <c r="E47" s="13"/>
-      <c r="F47" s="13"/>
-      <c r="G47" s="13">
+      <c r="E47" s="12">
+        <v>0</v>
+      </c>
+      <c r="F47" s="12">
+        <v>0</v>
+      </c>
+      <c r="G47" s="12">
         <v>3.99</v>
       </c>
     </row>
     <row r="48" ht="20.7" customHeight="1">
-      <c r="A48" s="10">
+      <c r="A48" s="9">
         <v>47</v>
       </c>
-      <c r="B48" s="11">
+      <c r="B48" s="10">
         <v>4</v>
       </c>
       <c r="C48" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="D48" s="12"/>
-      <c r="E48" s="13"/>
-      <c r="F48" s="13"/>
-      <c r="G48" s="13"/>
+      <c r="D48" s="11">
+        <v>98.04000000000001</v>
+      </c>
+      <c r="E48" s="12">
+        <v>0</v>
+      </c>
+      <c r="F48" s="12">
+        <v>0</v>
+      </c>
+      <c r="G48" s="12">
+        <v>4.05</v>
+      </c>
     </row>
     <row r="49" ht="20.7" customHeight="1">
-      <c r="A49" s="10">
+      <c r="A49" s="9">
         <v>48</v>
       </c>
-      <c r="B49" s="11">
+      <c r="B49" s="10">
         <v>4</v>
       </c>
       <c r="C49" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D49" s="12"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="13"/>
+      <c r="D49" s="11">
+        <v>0</v>
+      </c>
+      <c r="E49" s="12">
+        <v>0</v>
+      </c>
+      <c r="F49" s="12">
+        <v>0</v>
+      </c>
+      <c r="G49" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="50" ht="20.7" customHeight="1">
-      <c r="A50" s="10">
+      <c r="A50" s="9">
         <v>49</v>
       </c>
-      <c r="B50" s="11">
+      <c r="B50" s="10">
         <v>5</v>
       </c>
       <c r="C50" t="s" s="6">
         <v>7</v>
       </c>
-      <c r="D50" s="12">
+      <c r="D50" s="11">
         <v>95.67</v>
       </c>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="13">
+      <c r="E50" s="12">
+        <v>0</v>
+      </c>
+      <c r="F50" s="12">
+        <v>0</v>
+      </c>
+      <c r="G50" s="12">
         <v>3.796</v>
       </c>
     </row>
     <row r="51" ht="20.7" customHeight="1">
-      <c r="A51" s="10">
+      <c r="A51" s="9">
         <v>50</v>
       </c>
-      <c r="B51" s="11">
+      <c r="B51" s="10">
         <v>5</v>
       </c>
       <c r="C51" t="s" s="6">
         <v>8</v>
       </c>
-      <c r="D51" s="12">
+      <c r="D51" s="11">
         <v>97.01000000000001</v>
       </c>
-      <c r="E51" s="13"/>
-      <c r="F51" s="13"/>
-      <c r="G51" s="13">
+      <c r="E51" s="12">
+        <v>0</v>
+      </c>
+      <c r="F51" s="12">
+        <v>0</v>
+      </c>
+      <c r="G51" s="12">
         <v>3.941</v>
       </c>
     </row>
     <row r="52" ht="20.7" customHeight="1">
-      <c r="A52" s="10">
+      <c r="A52" s="9">
         <v>51</v>
       </c>
-      <c r="B52" s="11">
+      <c r="B52" s="10">
         <v>5</v>
       </c>
       <c r="C52" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="D52" s="12">
+      <c r="D52" s="11">
         <v>99.95</v>
       </c>
-      <c r="E52" s="13"/>
-      <c r="F52" s="13"/>
-      <c r="G52" s="13">
+      <c r="E52" s="12">
+        <v>0</v>
+      </c>
+      <c r="F52" s="12">
+        <v>0</v>
+      </c>
+      <c r="G52" s="12">
         <v>4.256</v>
       </c>
     </row>
     <row r="53" ht="20.7" customHeight="1">
-      <c r="A53" s="10">
+      <c r="A53" s="9">
         <v>52</v>
       </c>
-      <c r="B53" s="11">
+      <c r="B53" s="10">
         <v>5</v>
       </c>
       <c r="C53" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="D53" s="12">
+      <c r="D53" s="11">
         <v>100.55</v>
       </c>
-      <c r="E53" s="13"/>
-      <c r="F53" s="13"/>
-      <c r="G53" s="13">
+      <c r="E53" s="12">
+        <v>0</v>
+      </c>
+      <c r="F53" s="12">
+        <v>0</v>
+      </c>
+      <c r="G53" s="12">
         <v>4.194</v>
       </c>
     </row>
     <row r="54" ht="20.7" customHeight="1">
-      <c r="A54" s="10">
+      <c r="A54" s="9">
         <v>53</v>
       </c>
-      <c r="B54" s="11">
+      <c r="B54" s="10">
         <v>5</v>
       </c>
       <c r="C54" t="s" s="6">
         <v>11</v>
       </c>
-      <c r="D54" s="12">
+      <c r="D54" s="11">
         <v>99.84</v>
       </c>
-      <c r="E54" s="13"/>
-      <c r="F54" s="13"/>
-      <c r="G54" s="13">
+      <c r="E54" s="12">
+        <v>0</v>
+      </c>
+      <c r="F54" s="12">
+        <v>0</v>
+      </c>
+      <c r="G54" s="12">
         <v>3.991</v>
       </c>
     </row>
     <row r="55" ht="20.7" customHeight="1">
-      <c r="A55" s="10">
+      <c r="A55" s="9">
         <v>54</v>
       </c>
-      <c r="B55" s="11">
+      <c r="B55" s="10">
         <v>5</v>
       </c>
       <c r="C55" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="D55" s="12">
+      <c r="D55" s="11">
         <v>98.70999999999999</v>
       </c>
-      <c r="E55" s="13"/>
-      <c r="F55" s="13"/>
-      <c r="G55" s="13">
+      <c r="E55" s="12">
+        <v>0</v>
+      </c>
+      <c r="F55" s="12">
+        <v>0</v>
+      </c>
+      <c r="G55" s="12">
         <v>3.977</v>
       </c>
     </row>
     <row r="56" ht="20.7" customHeight="1">
-      <c r="A56" s="10">
+      <c r="A56" s="9">
         <v>55</v>
       </c>
-      <c r="B56" s="11">
+      <c r="B56" s="10">
         <v>5</v>
       </c>
       <c r="C56" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="D56" s="12">
+      <c r="D56" s="11">
         <v>98.86</v>
       </c>
-      <c r="E56" s="13"/>
-      <c r="F56" s="13"/>
-      <c r="G56" s="13">
+      <c r="E56" s="12">
+        <v>0</v>
+      </c>
+      <c r="F56" s="12">
+        <v>0</v>
+      </c>
+      <c r="G56" s="12">
         <v>3.971</v>
       </c>
     </row>
     <row r="57" ht="20.7" customHeight="1">
-      <c r="A57" s="10">
+      <c r="A57" s="9">
         <v>56</v>
       </c>
-      <c r="B57" s="11">
+      <c r="B57" s="10">
         <v>5</v>
       </c>
       <c r="C57" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="D57" s="12">
+      <c r="D57" s="11">
         <v>98</v>
       </c>
-      <c r="E57" s="13"/>
-      <c r="F57" s="13"/>
-      <c r="G57" s="13">
+      <c r="E57" s="12">
+        <v>0</v>
+      </c>
+      <c r="F57" s="12">
+        <v>0</v>
+      </c>
+      <c r="G57" s="12">
         <v>3.903</v>
       </c>
     </row>
     <row r="58" ht="20.7" customHeight="1">
-      <c r="A58" s="10">
+      <c r="A58" s="9">
         <v>57</v>
       </c>
-      <c r="B58" s="11">
+      <c r="B58" s="10">
         <v>5</v>
       </c>
       <c r="C58" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="D58" s="12">
+      <c r="D58" s="11">
         <v>97.51000000000001</v>
       </c>
-      <c r="E58" s="13"/>
-      <c r="F58" s="13"/>
-      <c r="G58" s="13">
+      <c r="E58" s="12">
+        <v>0</v>
+      </c>
+      <c r="F58" s="12">
+        <v>0</v>
+      </c>
+      <c r="G58" s="12">
         <v>3.867</v>
       </c>
     </row>
     <row r="59" ht="20.7" customHeight="1">
-      <c r="A59" s="10">
+      <c r="A59" s="9">
         <v>58</v>
       </c>
-      <c r="B59" s="11">
+      <c r="B59" s="10">
         <v>5</v>
       </c>
       <c r="C59" t="s" s="6">
         <v>16</v>
       </c>
-      <c r="D59" s="12">
+      <c r="D59" s="11">
         <v>97.70999999999999</v>
       </c>
-      <c r="E59" s="13"/>
-      <c r="F59" s="13"/>
-      <c r="G59" s="13">
+      <c r="E59" s="12">
+        <v>0</v>
+      </c>
+      <c r="F59" s="12">
+        <v>0</v>
+      </c>
+      <c r="G59" s="12">
         <v>3.891</v>
       </c>
     </row>
     <row r="60" ht="20.7" customHeight="1">
-      <c r="A60" s="10">
+      <c r="A60" s="9">
         <v>59</v>
       </c>
-      <c r="B60" s="11">
+      <c r="B60" s="10">
         <v>5</v>
       </c>
       <c r="C60" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="D60" s="12"/>
-      <c r="E60" s="13"/>
-      <c r="F60" s="13"/>
-      <c r="G60" s="13"/>
+      <c r="D60" s="11">
+        <v>98.04000000000001</v>
+      </c>
+      <c r="E60" s="12">
+        <v>0</v>
+      </c>
+      <c r="F60" s="12">
+        <v>0</v>
+      </c>
+      <c r="G60" s="12">
+        <v>3.95</v>
+      </c>
     </row>
     <row r="61" ht="20.7" customHeight="1">
-      <c r="A61" s="10">
+      <c r="A61" s="9">
         <v>60</v>
       </c>
-      <c r="B61" s="11">
+      <c r="B61" s="10">
         <v>5</v>
       </c>
       <c r="C61" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D61" s="12"/>
-      <c r="E61" s="13"/>
-      <c r="F61" s="13"/>
-      <c r="G61" s="13"/>
+      <c r="D61" s="11">
+        <v>0</v>
+      </c>
+      <c r="E61" s="12">
+        <v>0</v>
+      </c>
+      <c r="F61" s="12">
+        <v>0</v>
+      </c>
+      <c r="G61" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="62" ht="20.7" customHeight="1">
-      <c r="A62" s="10">
+      <c r="A62" s="9">
         <v>61</v>
       </c>
-      <c r="B62" s="11">
+      <c r="B62" s="10">
         <v>6</v>
       </c>
       <c r="C62" t="s" s="6">
         <v>7</v>
       </c>
-      <c r="D62" s="12">
+      <c r="D62" s="11">
         <v>95.67</v>
       </c>
-      <c r="E62" s="13"/>
-      <c r="F62" s="13"/>
-      <c r="G62" s="13">
+      <c r="E62" s="12">
+        <v>0</v>
+      </c>
+      <c r="F62" s="12">
+        <v>0</v>
+      </c>
+      <c r="G62" s="12">
         <v>3.853</v>
       </c>
     </row>
     <row r="63" ht="20.7" customHeight="1">
-      <c r="A63" s="10">
+      <c r="A63" s="9">
         <v>62</v>
       </c>
-      <c r="B63" s="11">
+      <c r="B63" s="10">
         <v>6</v>
       </c>
       <c r="C63" t="s" s="6">
         <v>8</v>
       </c>
-      <c r="D63" s="12">
+      <c r="D63" s="11">
         <v>97.01000000000001</v>
       </c>
-      <c r="E63" s="13"/>
-      <c r="F63" s="13"/>
-      <c r="G63" s="13">
+      <c r="E63" s="12">
+        <v>0</v>
+      </c>
+      <c r="F63" s="12">
+        <v>0</v>
+      </c>
+      <c r="G63" s="12">
         <v>4.001</v>
       </c>
     </row>
     <row r="64" ht="20.7" customHeight="1">
-      <c r="A64" s="10">
+      <c r="A64" s="9">
         <v>63</v>
       </c>
-      <c r="B64" s="11">
+      <c r="B64" s="10">
         <v>6</v>
       </c>
       <c r="C64" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="D64" s="12">
+      <c r="D64" s="11">
         <v>99.95</v>
       </c>
-      <c r="E64" s="13"/>
-      <c r="F64" s="13"/>
-      <c r="G64" s="13">
+      <c r="E64" s="12">
+        <v>0</v>
+      </c>
+      <c r="F64" s="12">
+        <v>0</v>
+      </c>
+      <c r="G64" s="12">
         <v>4.321</v>
       </c>
     </row>
     <row r="65" ht="20.7" customHeight="1">
-      <c r="A65" s="10">
+      <c r="A65" s="9">
         <v>64</v>
       </c>
-      <c r="B65" s="11">
+      <c r="B65" s="10">
         <v>6</v>
       </c>
       <c r="C65" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="D65" s="12">
+      <c r="D65" s="11">
         <v>100.55</v>
       </c>
-      <c r="E65" s="13"/>
-      <c r="F65" s="13"/>
-      <c r="G65" s="13">
+      <c r="E65" s="12">
+        <v>0</v>
+      </c>
+      <c r="F65" s="12">
+        <v>0</v>
+      </c>
+      <c r="G65" s="12">
         <v>4.258</v>
       </c>
     </row>
     <row r="66" ht="20.7" customHeight="1">
-      <c r="A66" s="10">
+      <c r="A66" s="9">
         <v>65</v>
       </c>
-      <c r="B66" s="11">
+      <c r="B66" s="10">
         <v>6</v>
       </c>
       <c r="C66" t="s" s="6">
         <v>11</v>
       </c>
-      <c r="D66" s="12">
+      <c r="D66" s="11">
         <v>99.84</v>
       </c>
-      <c r="E66" s="13"/>
-      <c r="F66" s="13"/>
-      <c r="G66" s="13">
+      <c r="E66" s="12">
+        <v>0</v>
+      </c>
+      <c r="F66" s="12">
+        <v>0</v>
+      </c>
+      <c r="G66" s="12">
         <v>4.052</v>
       </c>
     </row>
     <row r="67" ht="20.7" customHeight="1">
-      <c r="A67" s="10">
+      <c r="A67" s="9">
         <v>66</v>
       </c>
-      <c r="B67" s="11">
+      <c r="B67" s="10">
         <v>6</v>
       </c>
       <c r="C67" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="D67" s="12">
+      <c r="D67" s="11">
         <v>98.70999999999999</v>
       </c>
-      <c r="E67" s="13"/>
-      <c r="F67" s="13"/>
-      <c r="G67" s="13">
+      <c r="E67" s="12">
+        <v>0</v>
+      </c>
+      <c r="F67" s="12">
+        <v>0</v>
+      </c>
+      <c r="G67" s="12">
         <v>4.038</v>
       </c>
     </row>
     <row r="68" ht="20.7" customHeight="1">
-      <c r="A68" s="10">
+      <c r="A68" s="9">
         <v>67</v>
       </c>
-      <c r="B68" s="11">
+      <c r="B68" s="10">
         <v>6</v>
       </c>
       <c r="C68" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="D68" s="12">
+      <c r="D68" s="11">
         <v>98.86</v>
       </c>
-      <c r="E68" s="13"/>
-      <c r="F68" s="13"/>
-      <c r="G68" s="13">
+      <c r="E68" s="12">
+        <v>0</v>
+      </c>
+      <c r="F68" s="12">
+        <v>0</v>
+      </c>
+      <c r="G68" s="12">
         <v>4.032</v>
       </c>
     </row>
     <row r="69" ht="20.7" customHeight="1">
-      <c r="A69" s="10">
+      <c r="A69" s="9">
         <v>68</v>
       </c>
-      <c r="B69" s="11">
+      <c r="B69" s="10">
         <v>6</v>
       </c>
       <c r="C69" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="D69" s="12">
+      <c r="D69" s="11">
         <v>98</v>
       </c>
-      <c r="E69" s="13"/>
-      <c r="F69" s="13"/>
-      <c r="G69" s="13">
+      <c r="E69" s="12">
+        <v>0</v>
+      </c>
+      <c r="F69" s="12">
+        <v>0</v>
+      </c>
+      <c r="G69" s="12">
         <v>3.963</v>
       </c>
     </row>
     <row r="70" ht="20.7" customHeight="1">
-      <c r="A70" s="10">
+      <c r="A70" s="9">
         <v>69</v>
       </c>
-      <c r="B70" s="11">
+      <c r="B70" s="10">
         <v>6</v>
       </c>
       <c r="C70" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="D70" s="12">
+      <c r="D70" s="11">
         <v>97.51000000000001</v>
       </c>
-      <c r="E70" s="13"/>
-      <c r="F70" s="13"/>
-      <c r="G70" s="13">
+      <c r="E70" s="12">
+        <v>0</v>
+      </c>
+      <c r="F70" s="12">
+        <v>0</v>
+      </c>
+      <c r="G70" s="12">
         <v>3.927</v>
       </c>
     </row>
     <row r="71" ht="20.7" customHeight="1">
-      <c r="A71" s="10">
+      <c r="A71" s="9">
         <v>70</v>
       </c>
-      <c r="B71" s="11">
+      <c r="B71" s="10">
         <v>6</v>
       </c>
       <c r="C71" t="s" s="6">
         <v>16</v>
       </c>
-      <c r="D71" s="12">
+      <c r="D71" s="11">
         <v>97.70999999999999</v>
       </c>
-      <c r="E71" s="13"/>
-      <c r="F71" s="13"/>
-      <c r="G71" s="13">
+      <c r="E71" s="12">
+        <v>0</v>
+      </c>
+      <c r="F71" s="12">
+        <v>0</v>
+      </c>
+      <c r="G71" s="12">
         <v>3.952</v>
       </c>
     </row>
     <row r="72" ht="20.7" customHeight="1">
-      <c r="A72" s="10">
+      <c r="A72" s="9">
         <v>71</v>
       </c>
-      <c r="B72" s="11">
+      <c r="B72" s="10">
         <v>6</v>
       </c>
       <c r="C72" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="D72" s="12"/>
-      <c r="E72" s="13"/>
-      <c r="F72" s="13"/>
-      <c r="G72" s="13"/>
+      <c r="D72" s="11">
+        <v>98.04000000000001</v>
+      </c>
+      <c r="E72" s="12">
+        <v>0</v>
+      </c>
+      <c r="F72" s="12">
+        <v>0</v>
+      </c>
+      <c r="G72" s="12">
+        <v>4.01</v>
+      </c>
     </row>
     <row r="73" ht="20.7" customHeight="1">
-      <c r="A73" s="10">
+      <c r="A73" s="9">
         <v>72</v>
       </c>
-      <c r="B73" s="11">
+      <c r="B73" s="10">
         <v>6</v>
       </c>
       <c r="C73" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D73" s="12"/>
-      <c r="E73" s="13"/>
-      <c r="F73" s="13"/>
-      <c r="G73" s="13"/>
+      <c r="D73" s="11">
+        <v>0</v>
+      </c>
+      <c r="E73" s="12">
+        <v>0</v>
+      </c>
+      <c r="F73" s="12">
+        <v>0</v>
+      </c>
+      <c r="G73" s="12">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>

--- a/easylight/doc/Tarifa_Alto_Consumo.xlsx
+++ b/easylight/doc/Tarifa_Alto_Consumo.xlsx
@@ -6,13 +6,13 @@
     <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet 1 - Table 1" sheetId="1" r:id="rId4"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
   <si>
     <t>id</t>
   </si>
@@ -30,9 +30,6 @@
   </si>
   <si>
     <t>cost_no_verano</t>
-  </si>
-  <si>
-    <t>unique_rate</t>
   </si>
   <si>
     <t>ENERO</t>
@@ -290,7 +287,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -337,9 +334,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1428,7 +1422,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G73"/>
+  <dimension ref="A1:F73"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1440,8 +1434,7 @@
     <col min="4" max="4" width="16.3516" style="1" customWidth="1"/>
     <col min="5" max="5" width="16.3516" style="1" customWidth="1"/>
     <col min="6" max="6" width="16.3516" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.3516" style="1" customWidth="1"/>
-    <col min="8" max="256" width="16.3516" style="1" customWidth="1"/>
+    <col min="7" max="256" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.35" customHeight="1">
@@ -1463,9 +1456,6 @@
       <c r="F1" t="s" s="2">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="2">
-        <v>6</v>
-      </c>
     </row>
     <row r="2" ht="20.7" customHeight="1">
       <c r="A2" s="4">
@@ -1475,7 +1465,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s" s="6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D2" s="7">
         <v>95.67</v>
@@ -1485,9 +1475,6 @@
       </c>
       <c r="F2" s="8">
         <v>3.468</v>
-      </c>
-      <c r="G2" s="8">
-        <v>0</v>
       </c>
     </row>
     <row r="3" ht="20.7" customHeight="1">
@@ -1498,7 +1485,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s" s="6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" s="11">
         <v>97.01000000000001</v>
@@ -1508,9 +1495,6 @@
       </c>
       <c r="F3" s="12">
         <v>3.601</v>
-      </c>
-      <c r="G3" s="12">
-        <v>0</v>
       </c>
     </row>
     <row r="4" ht="20.7" customHeight="1">
@@ -1521,7 +1505,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="s" s="6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" s="11">
         <v>99.95</v>
@@ -1531,9 +1515,6 @@
       </c>
       <c r="F4" s="12">
         <v>3.889</v>
-      </c>
-      <c r="G4" s="12">
-        <v>0</v>
       </c>
     </row>
     <row r="5" ht="20.7" customHeight="1">
@@ -1544,7 +1525,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="s" s="6">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" s="11">
         <v>100.55</v>
@@ -1554,9 +1535,6 @@
       </c>
       <c r="F5" s="12">
         <v>3.833</v>
-      </c>
-      <c r="G5" s="12">
-        <v>0</v>
       </c>
     </row>
     <row r="6" ht="20.7" customHeight="1">
@@ -1567,7 +1545,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="s" s="6">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D6" s="11">
         <v>99.84</v>
@@ -1577,9 +1555,6 @@
       </c>
       <c r="F6" s="12">
         <v>3.647</v>
-      </c>
-      <c r="G6" s="12">
-        <v>0</v>
       </c>
     </row>
     <row r="7" ht="20.7" customHeight="1">
@@ -1590,7 +1565,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="s" s="6">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D7" s="11">
         <v>98.70999999999999</v>
@@ -1600,9 +1575,6 @@
       </c>
       <c r="F7" s="12">
         <v>3.635</v>
-      </c>
-      <c r="G7" s="12">
-        <v>0</v>
       </c>
     </row>
     <row r="8" ht="20.7" customHeight="1">
@@ -1613,7 +1585,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="s" s="6">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D8" s="11">
         <v>98.86</v>
@@ -1623,9 +1595,6 @@
       </c>
       <c r="F8" s="12">
         <v>3.629</v>
-      </c>
-      <c r="G8" s="12">
-        <v>0</v>
       </c>
     </row>
     <row r="9" ht="20.7" customHeight="1">
@@ -1636,7 +1605,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="s" s="6">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9" s="11">
         <v>98</v>
@@ -1646,9 +1615,6 @@
       </c>
       <c r="F9" s="12">
         <v>3.567</v>
-      </c>
-      <c r="G9" s="12">
-        <v>0</v>
       </c>
     </row>
     <row r="10" ht="20.7" customHeight="1">
@@ -1659,7 +1625,7 @@
         <v>1</v>
       </c>
       <c r="C10" t="s" s="6">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D10" s="11">
         <v>97.51000000000001</v>
@@ -1669,9 +1635,6 @@
       </c>
       <c r="F10" s="12">
         <v>3.535</v>
-      </c>
-      <c r="G10" s="12">
-        <v>0</v>
       </c>
     </row>
     <row r="11" ht="20.7" customHeight="1">
@@ -1682,7 +1645,7 @@
         <v>1</v>
       </c>
       <c r="C11" t="s" s="6">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D11" s="11">
         <v>97.70999999999999</v>
@@ -1692,9 +1655,6 @@
       </c>
       <c r="F11" s="12">
         <v>3.557</v>
-      </c>
-      <c r="G11" s="12">
-        <v>0</v>
       </c>
     </row>
     <row r="12" ht="20.7" customHeight="1">
@@ -1705,7 +1665,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="s" s="6">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D12" s="13">
         <v>98.04000000000001</v>
@@ -1715,9 +1675,6 @@
       </c>
       <c r="F12" s="14">
         <v>3.61</v>
-      </c>
-      <c r="G12" s="12">
-        <v>0</v>
       </c>
     </row>
     <row r="13" ht="20.7" customHeight="1">
@@ -1728,7 +1685,7 @@
         <v>1</v>
       </c>
       <c r="C13" t="s" s="6">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D13" s="11">
         <v>0</v>
@@ -1737,9 +1694,6 @@
         <v>0</v>
       </c>
       <c r="F13" s="12">
-        <v>0</v>
-      </c>
-      <c r="G13" s="12">
         <v>0</v>
       </c>
     </row>
@@ -1751,7 +1705,7 @@
         <v>2</v>
       </c>
       <c r="C14" t="s" s="6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D14" s="11">
         <v>95.67</v>
@@ -1761,9 +1715,6 @@
       </c>
       <c r="F14" s="12">
         <v>3.468</v>
-      </c>
-      <c r="G14" s="12">
-        <v>0</v>
       </c>
     </row>
     <row r="15" ht="20.7" customHeight="1">
@@ -1774,7 +1725,7 @@
         <v>2</v>
       </c>
       <c r="C15" t="s" s="6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D15" s="11">
         <v>97.01000000000001</v>
@@ -1784,9 +1735,6 @@
       </c>
       <c r="F15" s="12">
         <v>3.601</v>
-      </c>
-      <c r="G15" s="12">
-        <v>0</v>
       </c>
     </row>
     <row r="16" ht="20.7" customHeight="1">
@@ -1797,7 +1745,7 @@
         <v>2</v>
       </c>
       <c r="C16" t="s" s="6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D16" s="11">
         <v>99.95</v>
@@ -1807,9 +1755,6 @@
       </c>
       <c r="F16" s="12">
         <v>3.889</v>
-      </c>
-      <c r="G16" s="12">
-        <v>0</v>
       </c>
     </row>
     <row r="17" ht="20.7" customHeight="1">
@@ -1820,7 +1765,7 @@
         <v>2</v>
       </c>
       <c r="C17" t="s" s="6">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D17" s="11">
         <v>100.55</v>
@@ -1830,9 +1775,6 @@
       </c>
       <c r="F17" s="12">
         <v>3.833</v>
-      </c>
-      <c r="G17" s="12">
-        <v>0</v>
       </c>
     </row>
     <row r="18" ht="20.7" customHeight="1">
@@ -1843,7 +1785,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="s" s="6">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D18" s="11">
         <v>99.84</v>
@@ -1853,9 +1795,6 @@
       </c>
       <c r="F18" s="12">
         <v>3.647</v>
-      </c>
-      <c r="G18" s="12">
-        <v>0</v>
       </c>
     </row>
     <row r="19" ht="20.7" customHeight="1">
@@ -1866,7 +1805,7 @@
         <v>2</v>
       </c>
       <c r="C19" t="s" s="6">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D19" s="11">
         <v>98.70999999999999</v>
@@ -1876,9 +1815,6 @@
       </c>
       <c r="F19" s="12">
         <v>3.635</v>
-      </c>
-      <c r="G19" s="12">
-        <v>0</v>
       </c>
     </row>
     <row r="20" ht="20.7" customHeight="1">
@@ -1889,7 +1825,7 @@
         <v>2</v>
       </c>
       <c r="C20" t="s" s="6">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D20" s="11">
         <v>98.86</v>
@@ -1899,9 +1835,6 @@
       </c>
       <c r="F20" s="12">
         <v>3.629</v>
-      </c>
-      <c r="G20" s="12">
-        <v>0</v>
       </c>
     </row>
     <row r="21" ht="20.7" customHeight="1">
@@ -1912,7 +1845,7 @@
         <v>2</v>
       </c>
       <c r="C21" t="s" s="6">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D21" s="11">
         <v>98</v>
@@ -1922,9 +1855,6 @@
       </c>
       <c r="F21" s="12">
         <v>3.567</v>
-      </c>
-      <c r="G21" s="12">
-        <v>0</v>
       </c>
     </row>
     <row r="22" ht="20.7" customHeight="1">
@@ -1935,7 +1865,7 @@
         <v>2</v>
       </c>
       <c r="C22" t="s" s="6">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D22" s="11">
         <v>97.51000000000001</v>
@@ -1945,9 +1875,6 @@
       </c>
       <c r="F22" s="12">
         <v>3.535</v>
-      </c>
-      <c r="G22" s="12">
-        <v>0</v>
       </c>
     </row>
     <row r="23" ht="20.7" customHeight="1">
@@ -1958,7 +1885,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="s" s="6">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D23" s="11">
         <v>97.70999999999999</v>
@@ -1968,9 +1895,6 @@
       </c>
       <c r="F23" s="12">
         <v>3.557</v>
-      </c>
-      <c r="G23" s="12">
-        <v>0</v>
       </c>
     </row>
     <row r="24" ht="20.7" customHeight="1">
@@ -1981,7 +1905,7 @@
         <v>2</v>
       </c>
       <c r="C24" t="s" s="6">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D24" s="15">
         <v>98.04000000000001</v>
@@ -1991,9 +1915,6 @@
       </c>
       <c r="F24" s="12">
         <v>3.61</v>
-      </c>
-      <c r="G24" s="12">
-        <v>0</v>
       </c>
     </row>
     <row r="25" ht="20.7" customHeight="1">
@@ -2004,7 +1925,7 @@
         <v>2</v>
       </c>
       <c r="C25" t="s" s="6">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D25" s="15">
         <v>0</v>
@@ -2013,9 +1934,6 @@
         <v>0</v>
       </c>
       <c r="F25" s="11">
-        <v>0</v>
-      </c>
-      <c r="G25" s="12">
         <v>0</v>
       </c>
     </row>
@@ -2027,18 +1945,15 @@
         <v>3</v>
       </c>
       <c r="C26" t="s" s="6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D26" s="11">
         <v>95.67</v>
       </c>
       <c r="E26" s="12">
-        <v>0</v>
+        <v>4.156</v>
       </c>
       <c r="F26" s="12">
-        <v>0</v>
-      </c>
-      <c r="G26" s="12">
         <v>4.156</v>
       </c>
     </row>
@@ -2050,18 +1965,15 @@
         <v>3</v>
       </c>
       <c r="C27" t="s" s="6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D27" s="11">
         <v>97.01000000000001</v>
       </c>
       <c r="E27" s="12">
-        <v>0</v>
+        <v>4.315</v>
       </c>
       <c r="F27" s="12">
-        <v>0</v>
-      </c>
-      <c r="G27" s="12">
         <v>4.315</v>
       </c>
     </row>
@@ -2073,18 +1985,15 @@
         <v>3</v>
       </c>
       <c r="C28" t="s" s="6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D28" s="11">
         <v>99.95</v>
       </c>
       <c r="E28" s="12">
-        <v>0</v>
+        <v>4.66</v>
       </c>
       <c r="F28" s="12">
-        <v>0</v>
-      </c>
-      <c r="G28" s="12">
         <v>4.66</v>
       </c>
     </row>
@@ -2096,18 +2005,15 @@
         <v>3</v>
       </c>
       <c r="C29" t="s" s="6">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D29" s="11">
         <v>100.55</v>
       </c>
       <c r="E29" s="12">
-        <v>0</v>
+        <v>4.592</v>
       </c>
       <c r="F29" s="12">
-        <v>0</v>
-      </c>
-      <c r="G29" s="12">
         <v>4.592</v>
       </c>
     </row>
@@ -2119,18 +2025,15 @@
         <v>3</v>
       </c>
       <c r="C30" t="s" s="6">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D30" s="11">
         <v>99.84</v>
       </c>
       <c r="E30" s="12">
-        <v>0</v>
+        <v>4.37</v>
       </c>
       <c r="F30" s="12">
-        <v>0</v>
-      </c>
-      <c r="G30" s="12">
         <v>4.37</v>
       </c>
     </row>
@@ -2142,18 +2045,15 @@
         <v>3</v>
       </c>
       <c r="C31" t="s" s="6">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D31" s="11">
         <v>98.70999999999999</v>
       </c>
       <c r="E31" s="12">
-        <v>0</v>
+        <v>4.355</v>
       </c>
       <c r="F31" s="12">
-        <v>0</v>
-      </c>
-      <c r="G31" s="12">
         <v>4.355</v>
       </c>
     </row>
@@ -2165,18 +2065,15 @@
         <v>3</v>
       </c>
       <c r="C32" t="s" s="6">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D32" s="11">
         <v>98.86</v>
       </c>
       <c r="E32" s="12">
-        <v>0</v>
+        <v>4.348</v>
       </c>
       <c r="F32" s="12">
-        <v>0</v>
-      </c>
-      <c r="G32" s="12">
         <v>4.348</v>
       </c>
     </row>
@@ -2188,18 +2085,15 @@
         <v>3</v>
       </c>
       <c r="C33" t="s" s="6">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D33" s="11">
         <v>98</v>
       </c>
       <c r="E33" s="12">
-        <v>0</v>
+        <v>4.274</v>
       </c>
       <c r="F33" s="12">
-        <v>0</v>
-      </c>
-      <c r="G33" s="12">
         <v>4.274</v>
       </c>
     </row>
@@ -2211,18 +2105,15 @@
         <v>3</v>
       </c>
       <c r="C34" t="s" s="6">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D34" s="11">
         <v>97.51000000000001</v>
       </c>
       <c r="E34" s="12">
-        <v>0</v>
+        <v>4.235</v>
       </c>
       <c r="F34" s="12">
-        <v>0</v>
-      </c>
-      <c r="G34" s="12">
         <v>4.235</v>
       </c>
     </row>
@@ -2234,18 +2125,15 @@
         <v>3</v>
       </c>
       <c r="C35" t="s" s="6">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D35" s="11">
         <v>97.70999999999999</v>
       </c>
       <c r="E35" s="12">
-        <v>0</v>
+        <v>4.262</v>
       </c>
       <c r="F35" s="12">
-        <v>0</v>
-      </c>
-      <c r="G35" s="12">
         <v>4.262</v>
       </c>
     </row>
@@ -2257,18 +2145,15 @@
         <v>3</v>
       </c>
       <c r="C36" t="s" s="6">
-        <v>17</v>
-      </c>
-      <c r="D36" s="11">
+        <v>16</v>
+      </c>
+      <c r="D36" s="15">
         <v>98.04000000000001</v>
       </c>
-      <c r="E36" s="16">
-        <v>0</v>
-      </c>
-      <c r="F36" s="15">
-        <v>0</v>
-      </c>
-      <c r="G36" s="11">
+      <c r="E36" s="15">
+        <v>4.32</v>
+      </c>
+      <c r="F36" s="11">
         <v>4.32</v>
       </c>
     </row>
@@ -2280,7 +2165,7 @@
         <v>3</v>
       </c>
       <c r="C37" t="s" s="6">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D37" s="15">
         <v>0</v>
@@ -2288,10 +2173,7 @@
       <c r="E37" s="15">
         <v>0</v>
       </c>
-      <c r="F37" s="15">
-        <v>0</v>
-      </c>
-      <c r="G37" s="11">
+      <c r="F37" s="11">
         <v>0</v>
       </c>
     </row>
@@ -2303,18 +2185,15 @@
         <v>4</v>
       </c>
       <c r="C38" t="s" s="6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D38" s="11">
         <v>95.67</v>
       </c>
       <c r="E38" s="12">
-        <v>0</v>
+        <v>3.891</v>
       </c>
       <c r="F38" s="12">
-        <v>0</v>
-      </c>
-      <c r="G38" s="12">
         <v>3.891</v>
       </c>
     </row>
@@ -2326,18 +2205,15 @@
         <v>4</v>
       </c>
       <c r="C39" t="s" s="6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D39" s="11">
         <v>97.01000000000001</v>
       </c>
       <c r="E39" s="12">
-        <v>0</v>
+        <v>4.04</v>
       </c>
       <c r="F39" s="12">
-        <v>0</v>
-      </c>
-      <c r="G39" s="12">
         <v>4.04</v>
       </c>
     </row>
@@ -2349,18 +2225,15 @@
         <v>4</v>
       </c>
       <c r="C40" t="s" s="6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D40" s="11">
         <v>99.95</v>
       </c>
       <c r="E40" s="12">
-        <v>0</v>
+        <v>4.363</v>
       </c>
       <c r="F40" s="12">
-        <v>0</v>
-      </c>
-      <c r="G40" s="12">
         <v>4.363</v>
       </c>
     </row>
@@ -2372,18 +2245,15 @@
         <v>4</v>
       </c>
       <c r="C41" t="s" s="6">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D41" s="11">
         <v>100.55</v>
       </c>
       <c r="E41" s="12">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="F41" s="12">
-        <v>0</v>
-      </c>
-      <c r="G41" s="12">
         <v>4.3</v>
       </c>
     </row>
@@ -2395,18 +2265,15 @@
         <v>4</v>
       </c>
       <c r="C42" t="s" s="6">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D42" s="11">
         <v>99.84</v>
       </c>
       <c r="E42" s="12">
-        <v>0</v>
+        <v>4.092</v>
       </c>
       <c r="F42" s="12">
-        <v>0</v>
-      </c>
-      <c r="G42" s="12">
         <v>4.092</v>
       </c>
     </row>
@@ -2418,18 +2285,15 @@
         <v>4</v>
       </c>
       <c r="C43" t="s" s="6">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D43" s="11">
         <v>98.70999999999999</v>
       </c>
       <c r="E43" s="12">
-        <v>0</v>
+        <v>4.078</v>
       </c>
       <c r="F43" s="12">
-        <v>0</v>
-      </c>
-      <c r="G43" s="12">
         <v>4.078</v>
       </c>
     </row>
@@ -2441,18 +2305,15 @@
         <v>4</v>
       </c>
       <c r="C44" t="s" s="6">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D44" s="11">
         <v>98.86</v>
       </c>
       <c r="E44" s="12">
-        <v>0</v>
+        <v>4.071</v>
       </c>
       <c r="F44" s="12">
-        <v>0</v>
-      </c>
-      <c r="G44" s="12">
         <v>4.071</v>
       </c>
     </row>
@@ -2464,18 +2325,15 @@
         <v>4</v>
       </c>
       <c r="C45" t="s" s="6">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D45" s="11">
         <v>98</v>
       </c>
       <c r="E45" s="12">
-        <v>0</v>
+        <v>4.001</v>
       </c>
       <c r="F45" s="12">
-        <v>0</v>
-      </c>
-      <c r="G45" s="12">
         <v>4.001</v>
       </c>
     </row>
@@ -2487,18 +2345,15 @@
         <v>4</v>
       </c>
       <c r="C46" t="s" s="6">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D46" s="11">
         <v>97.51000000000001</v>
       </c>
       <c r="E46" s="12">
-        <v>0</v>
+        <v>3.965</v>
       </c>
       <c r="F46" s="12">
-        <v>0</v>
-      </c>
-      <c r="G46" s="12">
         <v>3.965</v>
       </c>
     </row>
@@ -2510,18 +2365,15 @@
         <v>4</v>
       </c>
       <c r="C47" t="s" s="6">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D47" s="11">
         <v>97.70999999999999</v>
       </c>
       <c r="E47" s="12">
-        <v>0</v>
+        <v>3.99</v>
       </c>
       <c r="F47" s="12">
-        <v>0</v>
-      </c>
-      <c r="G47" s="12">
         <v>3.99</v>
       </c>
     </row>
@@ -2533,18 +2385,15 @@
         <v>4</v>
       </c>
       <c r="C48" t="s" s="6">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D48" s="11">
         <v>98.04000000000001</v>
       </c>
       <c r="E48" s="12">
-        <v>0</v>
+        <v>4.05</v>
       </c>
       <c r="F48" s="12">
-        <v>0</v>
-      </c>
-      <c r="G48" s="12">
         <v>4.05</v>
       </c>
     </row>
@@ -2556,7 +2405,7 @@
         <v>4</v>
       </c>
       <c r="C49" t="s" s="6">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D49" s="11">
         <v>0</v>
@@ -2565,9 +2414,6 @@
         <v>0</v>
       </c>
       <c r="F49" s="12">
-        <v>0</v>
-      </c>
-      <c r="G49" s="12">
         <v>0</v>
       </c>
     </row>
@@ -2579,18 +2425,15 @@
         <v>5</v>
       </c>
       <c r="C50" t="s" s="6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D50" s="11">
         <v>95.67</v>
       </c>
       <c r="E50" s="12">
-        <v>0</v>
+        <v>3.796</v>
       </c>
       <c r="F50" s="12">
-        <v>0</v>
-      </c>
-      <c r="G50" s="12">
         <v>3.796</v>
       </c>
     </row>
@@ -2602,18 +2445,15 @@
         <v>5</v>
       </c>
       <c r="C51" t="s" s="6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D51" s="11">
         <v>97.01000000000001</v>
       </c>
       <c r="E51" s="12">
-        <v>0</v>
+        <v>3.941</v>
       </c>
       <c r="F51" s="12">
-        <v>0</v>
-      </c>
-      <c r="G51" s="12">
         <v>3.941</v>
       </c>
     </row>
@@ -2625,18 +2465,15 @@
         <v>5</v>
       </c>
       <c r="C52" t="s" s="6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D52" s="11">
         <v>99.95</v>
       </c>
       <c r="E52" s="12">
-        <v>0</v>
+        <v>4.256</v>
       </c>
       <c r="F52" s="12">
-        <v>0</v>
-      </c>
-      <c r="G52" s="12">
         <v>4.256</v>
       </c>
     </row>
@@ -2648,18 +2485,15 @@
         <v>5</v>
       </c>
       <c r="C53" t="s" s="6">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D53" s="11">
         <v>100.55</v>
       </c>
       <c r="E53" s="12">
-        <v>0</v>
+        <v>4.194</v>
       </c>
       <c r="F53" s="12">
-        <v>0</v>
-      </c>
-      <c r="G53" s="12">
         <v>4.194</v>
       </c>
     </row>
@@ -2671,18 +2505,15 @@
         <v>5</v>
       </c>
       <c r="C54" t="s" s="6">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D54" s="11">
         <v>99.84</v>
       </c>
       <c r="E54" s="12">
-        <v>0</v>
+        <v>3.991</v>
       </c>
       <c r="F54" s="12">
-        <v>0</v>
-      </c>
-      <c r="G54" s="12">
         <v>3.991</v>
       </c>
     </row>
@@ -2694,18 +2525,15 @@
         <v>5</v>
       </c>
       <c r="C55" t="s" s="6">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D55" s="11">
         <v>98.70999999999999</v>
       </c>
       <c r="E55" s="12">
-        <v>0</v>
+        <v>3.977</v>
       </c>
       <c r="F55" s="12">
-        <v>0</v>
-      </c>
-      <c r="G55" s="12">
         <v>3.977</v>
       </c>
     </row>
@@ -2717,18 +2545,15 @@
         <v>5</v>
       </c>
       <c r="C56" t="s" s="6">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D56" s="11">
         <v>98.86</v>
       </c>
       <c r="E56" s="12">
-        <v>0</v>
+        <v>3.971</v>
       </c>
       <c r="F56" s="12">
-        <v>0</v>
-      </c>
-      <c r="G56" s="12">
         <v>3.971</v>
       </c>
     </row>
@@ -2740,18 +2565,15 @@
         <v>5</v>
       </c>
       <c r="C57" t="s" s="6">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D57" s="11">
         <v>98</v>
       </c>
       <c r="E57" s="12">
-        <v>0</v>
+        <v>3.903</v>
       </c>
       <c r="F57" s="12">
-        <v>0</v>
-      </c>
-      <c r="G57" s="12">
         <v>3.903</v>
       </c>
     </row>
@@ -2763,18 +2585,15 @@
         <v>5</v>
       </c>
       <c r="C58" t="s" s="6">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D58" s="11">
         <v>97.51000000000001</v>
       </c>
       <c r="E58" s="12">
-        <v>0</v>
+        <v>3.867</v>
       </c>
       <c r="F58" s="12">
-        <v>0</v>
-      </c>
-      <c r="G58" s="12">
         <v>3.867</v>
       </c>
     </row>
@@ -2786,18 +2605,15 @@
         <v>5</v>
       </c>
       <c r="C59" t="s" s="6">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D59" s="11">
         <v>97.70999999999999</v>
       </c>
       <c r="E59" s="12">
-        <v>0</v>
+        <v>3.891</v>
       </c>
       <c r="F59" s="12">
-        <v>0</v>
-      </c>
-      <c r="G59" s="12">
         <v>3.891</v>
       </c>
     </row>
@@ -2809,18 +2625,15 @@
         <v>5</v>
       </c>
       <c r="C60" t="s" s="6">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D60" s="11">
         <v>98.04000000000001</v>
       </c>
       <c r="E60" s="12">
-        <v>0</v>
+        <v>3.95</v>
       </c>
       <c r="F60" s="12">
-        <v>0</v>
-      </c>
-      <c r="G60" s="12">
         <v>3.95</v>
       </c>
     </row>
@@ -2832,7 +2645,7 @@
         <v>5</v>
       </c>
       <c r="C61" t="s" s="6">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D61" s="11">
         <v>0</v>
@@ -2841,9 +2654,6 @@
         <v>0</v>
       </c>
       <c r="F61" s="12">
-        <v>0</v>
-      </c>
-      <c r="G61" s="12">
         <v>0</v>
       </c>
     </row>
@@ -2855,18 +2665,15 @@
         <v>6</v>
       </c>
       <c r="C62" t="s" s="6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D62" s="11">
         <v>95.67</v>
       </c>
       <c r="E62" s="12">
-        <v>0</v>
+        <v>3.853</v>
       </c>
       <c r="F62" s="12">
-        <v>0</v>
-      </c>
-      <c r="G62" s="12">
         <v>3.853</v>
       </c>
     </row>
@@ -2878,18 +2685,15 @@
         <v>6</v>
       </c>
       <c r="C63" t="s" s="6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D63" s="11">
         <v>97.01000000000001</v>
       </c>
       <c r="E63" s="12">
-        <v>0</v>
+        <v>4.001</v>
       </c>
       <c r="F63" s="12">
-        <v>0</v>
-      </c>
-      <c r="G63" s="12">
         <v>4.001</v>
       </c>
     </row>
@@ -2901,18 +2705,15 @@
         <v>6</v>
       </c>
       <c r="C64" t="s" s="6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D64" s="11">
         <v>99.95</v>
       </c>
       <c r="E64" s="12">
-        <v>0</v>
+        <v>4.321</v>
       </c>
       <c r="F64" s="12">
-        <v>0</v>
-      </c>
-      <c r="G64" s="12">
         <v>4.321</v>
       </c>
     </row>
@@ -2924,18 +2725,15 @@
         <v>6</v>
       </c>
       <c r="C65" t="s" s="6">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D65" s="11">
         <v>100.55</v>
       </c>
       <c r="E65" s="12">
-        <v>0</v>
+        <v>4.258</v>
       </c>
       <c r="F65" s="12">
-        <v>0</v>
-      </c>
-      <c r="G65" s="12">
         <v>4.258</v>
       </c>
     </row>
@@ -2947,18 +2745,15 @@
         <v>6</v>
       </c>
       <c r="C66" t="s" s="6">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D66" s="11">
         <v>99.84</v>
       </c>
       <c r="E66" s="12">
-        <v>0</v>
+        <v>4.052</v>
       </c>
       <c r="F66" s="12">
-        <v>0</v>
-      </c>
-      <c r="G66" s="12">
         <v>4.052</v>
       </c>
     </row>
@@ -2970,18 +2765,15 @@
         <v>6</v>
       </c>
       <c r="C67" t="s" s="6">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D67" s="11">
         <v>98.70999999999999</v>
       </c>
       <c r="E67" s="12">
-        <v>0</v>
+        <v>4.038</v>
       </c>
       <c r="F67" s="12">
-        <v>0</v>
-      </c>
-      <c r="G67" s="12">
         <v>4.038</v>
       </c>
     </row>
@@ -2993,18 +2785,15 @@
         <v>6</v>
       </c>
       <c r="C68" t="s" s="6">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D68" s="11">
         <v>98.86</v>
       </c>
       <c r="E68" s="12">
-        <v>0</v>
+        <v>4.032</v>
       </c>
       <c r="F68" s="12">
-        <v>0</v>
-      </c>
-      <c r="G68" s="12">
         <v>4.032</v>
       </c>
     </row>
@@ -3016,18 +2805,15 @@
         <v>6</v>
       </c>
       <c r="C69" t="s" s="6">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D69" s="11">
         <v>98</v>
       </c>
       <c r="E69" s="12">
-        <v>0</v>
+        <v>3.963</v>
       </c>
       <c r="F69" s="12">
-        <v>0</v>
-      </c>
-      <c r="G69" s="12">
         <v>3.963</v>
       </c>
     </row>
@@ -3039,18 +2825,15 @@
         <v>6</v>
       </c>
       <c r="C70" t="s" s="6">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D70" s="11">
         <v>97.51000000000001</v>
       </c>
       <c r="E70" s="12">
-        <v>0</v>
+        <v>3.927</v>
       </c>
       <c r="F70" s="12">
-        <v>0</v>
-      </c>
-      <c r="G70" s="12">
         <v>3.927</v>
       </c>
     </row>
@@ -3062,18 +2845,15 @@
         <v>6</v>
       </c>
       <c r="C71" t="s" s="6">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D71" s="11">
         <v>97.70999999999999</v>
       </c>
       <c r="E71" s="12">
-        <v>0</v>
+        <v>3.952</v>
       </c>
       <c r="F71" s="12">
-        <v>0</v>
-      </c>
-      <c r="G71" s="12">
         <v>3.952</v>
       </c>
     </row>
@@ -3085,18 +2865,15 @@
         <v>6</v>
       </c>
       <c r="C72" t="s" s="6">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D72" s="11">
         <v>98.04000000000001</v>
       </c>
       <c r="E72" s="12">
-        <v>0</v>
+        <v>4.01</v>
       </c>
       <c r="F72" s="12">
-        <v>0</v>
-      </c>
-      <c r="G72" s="12">
         <v>4.01</v>
       </c>
     </row>
@@ -3108,7 +2885,7 @@
         <v>6</v>
       </c>
       <c r="C73" t="s" s="6">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D73" s="11">
         <v>0</v>
@@ -3117,9 +2894,6 @@
         <v>0</v>
       </c>
       <c r="F73" s="12">
-        <v>0</v>
-      </c>
-      <c r="G73" s="12">
         <v>0</v>
       </c>
     </row>

--- a/easylight/doc/Tarifa_Alto_Consumo.xlsx
+++ b/easylight/doc/Tarifa_Alto_Consumo.xlsx
@@ -1687,14 +1687,14 @@
       <c r="C13" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="D13" s="11">
-        <v>0</v>
+      <c r="D13" s="13">
+        <v>98.04000000000001</v>
       </c>
       <c r="E13" s="12">
-        <v>0</v>
-      </c>
-      <c r="F13" s="12">
-        <v>0</v>
+        <v>4.201</v>
+      </c>
+      <c r="F13" s="14">
+        <v>3.61</v>
       </c>
     </row>
     <row r="14" ht="20.7" customHeight="1">
@@ -1928,13 +1928,13 @@
         <v>17</v>
       </c>
       <c r="D25" s="15">
-        <v>0</v>
-      </c>
-      <c r="E25" s="15">
-        <v>0</v>
-      </c>
-      <c r="F25" s="11">
-        <v>0</v>
+        <v>98.04000000000001</v>
+      </c>
+      <c r="E25" s="11">
+        <v>4.58</v>
+      </c>
+      <c r="F25" s="12">
+        <v>3.61</v>
       </c>
     </row>
     <row r="26" ht="20.7" customHeight="1">
@@ -2168,13 +2168,13 @@
         <v>17</v>
       </c>
       <c r="D37" s="15">
-        <v>0</v>
+        <v>98.04000000000001</v>
       </c>
       <c r="E37" s="15">
-        <v>0</v>
+        <v>4.32</v>
       </c>
       <c r="F37" s="11">
-        <v>0</v>
+        <v>4.32</v>
       </c>
     </row>
     <row r="38" ht="20.7" customHeight="1">
@@ -2408,13 +2408,13 @@
         <v>17</v>
       </c>
       <c r="D49" s="11">
-        <v>0</v>
+        <v>98.04000000000001</v>
       </c>
       <c r="E49" s="12">
-        <v>0</v>
+        <v>4.05</v>
       </c>
       <c r="F49" s="12">
-        <v>0</v>
+        <v>4.05</v>
       </c>
     </row>
     <row r="50" ht="20.7" customHeight="1">
@@ -2648,13 +2648,13 @@
         <v>17</v>
       </c>
       <c r="D61" s="11">
-        <v>0</v>
+        <v>98.04000000000001</v>
       </c>
       <c r="E61" s="12">
-        <v>0</v>
+        <v>3.95</v>
       </c>
       <c r="F61" s="12">
-        <v>0</v>
+        <v>3.95</v>
       </c>
     </row>
     <row r="62" ht="20.7" customHeight="1">
@@ -2888,13 +2888,13 @@
         <v>17</v>
       </c>
       <c r="D73" s="11">
-        <v>0</v>
+        <v>98.04000000000001</v>
       </c>
       <c r="E73" s="12">
-        <v>0</v>
+        <v>4.01</v>
       </c>
       <c r="F73" s="12">
-        <v>0</v>
+        <v>4.01</v>
       </c>
     </row>
   </sheetData>
